--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_25_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_25_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>517865.1927563011</v>
+        <v>517216.8335294962</v>
       </c>
     </row>
     <row r="7">
@@ -1370,11 +1370,11 @@
         <v>72.40356150710426</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
         <v>72.40356150710426</v>
       </c>
-      <c r="D11" t="n">
-        <v>56.6675529593582</v>
-      </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
@@ -1421,13 +1421,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.105504016099173</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>37.19202471399027</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>26.58103226146704</v>
       </c>
       <c r="W11" t="n">
         <v>72.40356150710426</v>
@@ -1607,23 +1607,23 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
+        <v>19.47552824536776</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>72.40356150710426</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>63.77305697545739</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>7.105504016099259</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>37.19202471399036</v>
       </c>
       <c r="V14" t="n">
         <v>72.40356150710426</v>
       </c>
       <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>72.40356150710426</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>11.80690084956988</v>
+        <v>11.80690084956996</v>
       </c>
       <c r="V15" t="n">
-        <v>18.68115031993852</v>
+        <v>18.68115031993861</v>
       </c>
       <c r="W15" t="n">
-        <v>37.57554633143286</v>
+        <v>37.57554633143295</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>6.556120159855261</v>
+        <v>6.556120159855347</v>
       </c>
       <c r="T16" t="n">
-        <v>13.00701368779516</v>
+        <v>13.00701368779524</v>
       </c>
       <c r="U16" t="n">
-        <v>72.18913543452329</v>
+        <v>72.18913543452338</v>
       </c>
       <c r="V16" t="n">
-        <v>38.01820649434126</v>
+        <v>38.01820649434134</v>
       </c>
       <c r="W16" t="n">
-        <v>72.40356150710426</v>
+        <v>72.40356150710434</v>
       </c>
       <c r="X16" t="n">
-        <v>11.59021855955041</v>
+        <v>11.59021855955049</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.465216522608046</v>
+        <v>4.465216522608131</v>
       </c>
     </row>
     <row r="17">
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>34.88964134293042</v>
+        <v>34.88964134293047</v>
       </c>
       <c r="C20" t="n">
-        <v>17.42869145045751</v>
+        <v>17.42869145045745</v>
       </c>
       <c r="D20" t="n">
-        <v>6.838841300132799</v>
+        <v>6.838841300132856</v>
       </c>
       <c r="E20" t="n">
-        <v>34.08616975171162</v>
+        <v>34.08616975171168</v>
       </c>
       <c r="F20" t="n">
-        <v>59.03184542116128</v>
+        <v>59.03184542116134</v>
       </c>
       <c r="G20" t="n">
-        <v>67.03114514009138</v>
+        <v>67.03114514009144</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.396768396862853</v>
+        <v>1.39676839686291</v>
       </c>
       <c r="X20" t="n">
-        <v>21.88690035791888</v>
+        <v>21.88690035791893</v>
       </c>
       <c r="Y20" t="n">
-        <v>38.39373833550343</v>
+        <v>38.39373833550349</v>
       </c>
     </row>
     <row r="21">
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34.88964134293042</v>
+        <v>34.88964134293047</v>
       </c>
       <c r="C23" t="n">
-        <v>17.42869145045739</v>
+        <v>17.42869145045745</v>
       </c>
       <c r="D23" t="n">
-        <v>6.838841300132799</v>
+        <v>6.838841300132856</v>
       </c>
       <c r="E23" t="n">
-        <v>34.08616975171162</v>
+        <v>34.08616975171168</v>
       </c>
       <c r="F23" t="n">
-        <v>59.03184542116128</v>
+        <v>59.03184542116134</v>
       </c>
       <c r="G23" t="n">
-        <v>67.03114514009138</v>
+        <v>67.03114514009144</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1.396768396862853</v>
+        <v>1.39676839686291</v>
       </c>
       <c r="X23" t="n">
-        <v>21.88690035791888</v>
+        <v>21.88690035791893</v>
       </c>
       <c r="Y23" t="n">
-        <v>38.39373833550343</v>
+        <v>38.39373833550349</v>
       </c>
     </row>
     <row r="24">
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.5089008178947</v>
+        <v>161.5089008178946</v>
       </c>
       <c r="C26" t="n">
         <v>144.0479509254216</v>
       </c>
       <c r="D26" t="n">
-        <v>133.4581007750971</v>
+        <v>133.458100775097</v>
       </c>
       <c r="E26" t="n">
-        <v>160.7054292266759</v>
+        <v>160.7054292266758</v>
       </c>
       <c r="F26" t="n">
         <v>185.6511048961255</v>
@@ -2570,7 +2570,7 @@
         <v>193.6504046150556</v>
       </c>
       <c r="H26" t="n">
-        <v>113.8728323920994</v>
+        <v>113.8728323920993</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>30.08652069789111</v>
+        <v>30.08652069789107</v>
       </c>
       <c r="V26" t="n">
         <v>106.527317624549</v>
@@ -2688,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>4.701396833470715</v>
+        <v>4.701396833470687</v>
       </c>
       <c r="V27" t="n">
-        <v>11.57564630383936</v>
+        <v>11.57564630383933</v>
       </c>
       <c r="W27" t="n">
-        <v>30.4700423153337</v>
+        <v>30.47004231533367</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2764,19 +2764,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>5.901509671695996</v>
+        <v>5.901509671695968</v>
       </c>
       <c r="U28" t="n">
-        <v>65.08363141842413</v>
+        <v>65.0836314184241</v>
       </c>
       <c r="V28" t="n">
-        <v>30.9127024782421</v>
+        <v>30.91270247824207</v>
       </c>
       <c r="W28" t="n">
-        <v>65.2980574910051</v>
+        <v>65.29805749100507</v>
       </c>
       <c r="X28" t="n">
-        <v>4.484714543451247</v>
+        <v>4.484714543451219</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>161.5089008178946</v>
+        <v>161.5089008178947</v>
       </c>
       <c r="C29" t="n">
         <v>144.0479509254216</v>
       </c>
       <c r="D29" t="n">
-        <v>133.458100775097</v>
+        <v>133.4581007750971</v>
       </c>
       <c r="E29" t="n">
-        <v>160.7054292266758</v>
+        <v>160.7054292266759</v>
       </c>
       <c r="F29" t="n">
         <v>185.6511048961255</v>
@@ -2807,7 +2807,7 @@
         <v>193.6504046150556</v>
       </c>
       <c r="H29" t="n">
-        <v>113.8728323920993</v>
+        <v>113.8728323920994</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>30.08652069789107</v>
+        <v>30.08652069789111</v>
       </c>
       <c r="V29" t="n">
         <v>106.527317624549</v>
@@ -2925,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>4.701396833470687</v>
+        <v>4.701396833470715</v>
       </c>
       <c r="V30" t="n">
-        <v>11.57564630383933</v>
+        <v>11.57564630383936</v>
       </c>
       <c r="W30" t="n">
-        <v>30.47004231533367</v>
+        <v>30.4700423153337</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3001,19 +3001,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>5.901509671695968</v>
+        <v>5.901509671695996</v>
       </c>
       <c r="U31" t="n">
-        <v>65.0836314184241</v>
+        <v>65.08363141842413</v>
       </c>
       <c r="V31" t="n">
-        <v>30.91270247824207</v>
+        <v>30.9127024782421</v>
       </c>
       <c r="W31" t="n">
-        <v>65.29805749100507</v>
+        <v>65.2980574910051</v>
       </c>
       <c r="X31" t="n">
-        <v>4.484714543451219</v>
+        <v>4.484714543451247</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>161.5089008178947</v>
+        <v>161.5089008178946</v>
       </c>
       <c r="C32" t="n">
         <v>144.0479509254216</v>
       </c>
       <c r="D32" t="n">
-        <v>133.4581007750971</v>
+        <v>133.458100775097</v>
       </c>
       <c r="E32" t="n">
-        <v>160.7054292266759</v>
+        <v>160.7054292266758</v>
       </c>
       <c r="F32" t="n">
-        <v>185.6511048961255</v>
+        <v>185.6511048961254</v>
       </c>
       <c r="G32" t="n">
-        <v>193.6504046150556</v>
+        <v>193.6504046150555</v>
       </c>
       <c r="H32" t="n">
-        <v>113.8728323920994</v>
+        <v>113.8728323920993</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,19 +3083,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>30.0865206978911</v>
+        <v>30.08652069789102</v>
       </c>
       <c r="V32" t="n">
-        <v>106.527317624549</v>
+        <v>106.5273176245489</v>
       </c>
       <c r="W32" t="n">
-        <v>128.0160278718271</v>
+        <v>128.016027871827</v>
       </c>
       <c r="X32" t="n">
-        <v>148.5061598328831</v>
+        <v>148.506159832883</v>
       </c>
       <c r="Y32" t="n">
-        <v>165.0129978104677</v>
+        <v>165.0129978104676</v>
       </c>
     </row>
     <row r="33">
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>4.701396833470715</v>
+        <v>4.70139683347063</v>
       </c>
       <c r="V33" t="n">
-        <v>11.57564630383936</v>
+        <v>11.57564630383928</v>
       </c>
       <c r="W33" t="n">
-        <v>30.4700423153337</v>
+        <v>30.47004231533361</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3238,19 +3238,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>5.901509671695996</v>
+        <v>5.901509671695911</v>
       </c>
       <c r="U34" t="n">
-        <v>65.08363141842413</v>
+        <v>65.08363141842405</v>
       </c>
       <c r="V34" t="n">
-        <v>30.9127024782421</v>
+        <v>30.91270247824201</v>
       </c>
       <c r="W34" t="n">
-        <v>65.2980574910051</v>
+        <v>65.29805749100501</v>
       </c>
       <c r="X34" t="n">
-        <v>4.484714543451247</v>
+        <v>4.484714543451162</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>6.671208906493607</v>
+        <v>6.671208906493604</v>
       </c>
       <c r="V35" t="n">
         <v>83.1120058331515</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>138.0935890264972</v>
+        <v>138.0935890264971</v>
       </c>
       <c r="C38" t="n">
         <v>120.6326391340241</v>
       </c>
       <c r="D38" t="n">
-        <v>110.0427889836996</v>
+        <v>110.0427889836995</v>
       </c>
       <c r="E38" t="n">
-        <v>137.2901174352784</v>
+        <v>137.2901174352783</v>
       </c>
       <c r="F38" t="n">
-        <v>162.235793104728</v>
+        <v>162.2357931047279</v>
       </c>
       <c r="G38" t="n">
         <v>170.2350928236581</v>
       </c>
       <c r="H38" t="n">
-        <v>90.45752060070186</v>
+        <v>90.45752060070177</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>6.671208906493607</v>
+        <v>6.671208906493518</v>
       </c>
       <c r="V38" t="n">
-        <v>83.1120058331515</v>
+        <v>83.11200583315141</v>
       </c>
       <c r="W38" t="n">
-        <v>104.6007160804296</v>
+        <v>104.6007160804295</v>
       </c>
       <c r="X38" t="n">
-        <v>125.0908480414856</v>
+        <v>125.0908480414855</v>
       </c>
       <c r="Y38" t="n">
-        <v>141.5976860190702</v>
+        <v>141.5976860190701</v>
       </c>
     </row>
     <row r="39">
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>7.0547305239362</v>
+        <v>7.054730523936115</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>41.66831962702663</v>
+        <v>41.66831962702655</v>
       </c>
       <c r="V40" t="n">
-        <v>7.497390686844597</v>
+        <v>7.497390686844511</v>
       </c>
       <c r="W40" t="n">
-        <v>41.8827456996076</v>
+        <v>41.88274569960751</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>138.0935890264973</v>
+        <v>138.0935890264971</v>
       </c>
       <c r="C41" t="n">
-        <v>120.6326391340243</v>
+        <v>120.6326391340241</v>
       </c>
       <c r="D41" t="n">
-        <v>110.0427889836997</v>
+        <v>110.0427889836995</v>
       </c>
       <c r="E41" t="n">
-        <v>137.2901174352785</v>
+        <v>137.2901174352783</v>
       </c>
       <c r="F41" t="n">
-        <v>162.2357931047282</v>
+        <v>162.235793104728</v>
       </c>
       <c r="G41" t="n">
-        <v>170.2350928236582</v>
+        <v>170.2350928236581</v>
       </c>
       <c r="H41" t="n">
-        <v>90.457520600702</v>
+        <v>90.45752060070183</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>6.671208906493749</v>
+        <v>6.671208906493579</v>
       </c>
       <c r="V41" t="n">
-        <v>83.11200583315164</v>
+        <v>83.11200583315147</v>
       </c>
       <c r="W41" t="n">
-        <v>104.6007160804297</v>
+        <v>104.6007160804296</v>
       </c>
       <c r="X41" t="n">
-        <v>125.0908480414858</v>
+        <v>125.0908480414856</v>
       </c>
       <c r="Y41" t="n">
-        <v>141.5976860190703</v>
+        <v>141.5976860190702</v>
       </c>
     </row>
     <row r="42">
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>7.054730523936342</v>
+        <v>7.054730523936172</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>41.66831962702678</v>
+        <v>41.66831962702661</v>
       </c>
       <c r="V43" t="n">
-        <v>7.497390686844739</v>
+        <v>7.497390686844568</v>
       </c>
       <c r="W43" t="n">
-        <v>41.88274569960774</v>
+        <v>41.88274569960757</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>138.0935890264973</v>
+        <v>138.0935890264971</v>
       </c>
       <c r="C44" t="n">
-        <v>120.6326391340243</v>
+        <v>120.632639134024</v>
       </c>
       <c r="D44" t="n">
-        <v>110.0427889836997</v>
+        <v>110.0427889836994</v>
       </c>
       <c r="E44" t="n">
-        <v>137.2901174352785</v>
+        <v>137.2901174352783</v>
       </c>
       <c r="F44" t="n">
-        <v>162.2357931047282</v>
+        <v>162.2357931047279</v>
       </c>
       <c r="G44" t="n">
-        <v>170.2350928236571</v>
+        <v>170.235092823658</v>
       </c>
       <c r="H44" t="n">
-        <v>90.457520600702</v>
+        <v>90.45752060070174</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>6.671208906493749</v>
+        <v>6.671208906493494</v>
       </c>
       <c r="V44" t="n">
-        <v>83.11200583315164</v>
+        <v>83.11200583315139</v>
       </c>
       <c r="W44" t="n">
-        <v>104.6007160804297</v>
+        <v>104.6007160804295</v>
       </c>
       <c r="X44" t="n">
-        <v>125.0908480414858</v>
+        <v>125.0908480414855</v>
       </c>
       <c r="Y44" t="n">
-        <v>141.5976860190703</v>
+        <v>141.5976860190701</v>
       </c>
     </row>
     <row r="45">
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>7.054730523936342</v>
+        <v>7.054730523936087</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>41.66831962702678</v>
+        <v>41.66831962702652</v>
       </c>
       <c r="V46" t="n">
-        <v>7.497390686844739</v>
+        <v>7.497390686844483</v>
       </c>
       <c r="W46" t="n">
-        <v>41.88274569960774</v>
+        <v>41.88274569960748</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>136.1671480180052</v>
+        <v>78.92719553380496</v>
       </c>
       <c r="C11" t="n">
-        <v>63.03223740476855</v>
+        <v>78.92719553380496</v>
       </c>
       <c r="D11" t="n">
         <v>5.792284920568341</v>
@@ -5039,52 +5039,52 @@
         <v>25.71165856611166</v>
       </c>
       <c r="J11" t="n">
-        <v>94.36607826710387</v>
+        <v>25.71165856611166</v>
       </c>
       <c r="K11" t="n">
-        <v>142.2775815250289</v>
+        <v>73.62316182403666</v>
       </c>
       <c r="L11" t="n">
-        <v>187.6182880890267</v>
+        <v>94.15252685763578</v>
       </c>
       <c r="M11" t="n">
-        <v>193.4339668843752</v>
+        <v>138.2310207483909</v>
       </c>
       <c r="N11" t="n">
-        <v>193.4339668843752</v>
+        <v>138.2310207483909</v>
       </c>
       <c r="O11" t="n">
-        <v>193.4339668843752</v>
+        <v>209.9105466404241</v>
       </c>
       <c r="P11" t="n">
-        <v>237.3364601073259</v>
+        <v>253.8130398633748</v>
       </c>
       <c r="Q11" t="n">
-        <v>274.9240679802544</v>
+        <v>289.614246028417</v>
       </c>
       <c r="R11" t="n">
-        <v>274.9240679802544</v>
+        <v>289.614246028417</v>
       </c>
       <c r="S11" t="n">
         <v>289.614246028417</v>
       </c>
       <c r="T11" t="n">
-        <v>282.4369692444785</v>
+        <v>289.614246028417</v>
       </c>
       <c r="U11" t="n">
-        <v>282.4369692444785</v>
+        <v>252.0465442971137</v>
       </c>
       <c r="V11" t="n">
-        <v>282.4369692444785</v>
+        <v>225.1970167602783</v>
       </c>
       <c r="W11" t="n">
-        <v>209.3020586312418</v>
+        <v>152.0621061470416</v>
       </c>
       <c r="X11" t="n">
-        <v>209.3020586312418</v>
+        <v>152.0621061470416</v>
       </c>
       <c r="Y11" t="n">
-        <v>209.3020586312418</v>
+        <v>152.0621061470416</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>5.792284920568341</v>
       </c>
       <c r="J12" t="n">
-        <v>5.792284920568341</v>
+        <v>74.5433935073777</v>
       </c>
       <c r="K12" t="n">
-        <v>5.792284920568341</v>
+        <v>74.5433935073777</v>
       </c>
       <c r="L12" t="n">
-        <v>5.792284920568341</v>
+        <v>74.5433935073777</v>
       </c>
       <c r="M12" t="n">
-        <v>5.792284920568341</v>
+        <v>74.5433935073777</v>
       </c>
       <c r="N12" t="n">
-        <v>5.792284920568341</v>
+        <v>74.5433935073777</v>
       </c>
       <c r="O12" t="n">
-        <v>5.792284920568341</v>
+        <v>74.5433935073777</v>
       </c>
       <c r="P12" t="n">
-        <v>5.792284920568341</v>
+        <v>74.5433935073777</v>
       </c>
       <c r="Q12" t="n">
         <v>74.5433935073777</v>
@@ -5182,31 +5182,31 @@
         <v>5.792284920568341</v>
       </c>
       <c r="E13" t="n">
-        <v>72.80090436165673</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="F13" t="n">
-        <v>72.80090436165673</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="G13" t="n">
-        <v>72.80090436165673</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="H13" t="n">
-        <v>72.80090436165673</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="I13" t="n">
-        <v>72.80090436165673</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="J13" t="n">
-        <v>85.6030357682677</v>
+        <v>77.47181081260155</v>
       </c>
       <c r="K13" t="n">
-        <v>85.60710977500332</v>
+        <v>77.47181081260155</v>
       </c>
       <c r="L13" t="n">
-        <v>85.60710977500332</v>
+        <v>82.86704360698442</v>
       </c>
       <c r="M13" t="n">
-        <v>154.5465694990176</v>
+        <v>82.86704360698442</v>
       </c>
       <c r="N13" t="n">
         <v>154.5465694990176</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>143.3444248019437</v>
+        <v>98.59944628670169</v>
       </c>
       <c r="C14" t="n">
-        <v>70.20951418870712</v>
+        <v>78.92719553380496</v>
       </c>
       <c r="D14" t="n">
-        <v>70.20951418870712</v>
+        <v>78.92719553380496</v>
       </c>
       <c r="E14" t="n">
-        <v>70.20951418870712</v>
+        <v>78.92719553380496</v>
       </c>
       <c r="F14" t="n">
-        <v>70.20951418870712</v>
+        <v>78.92719553380496</v>
       </c>
       <c r="G14" t="n">
-        <v>70.20951418870712</v>
+        <v>78.92719553380496</v>
       </c>
       <c r="H14" t="n">
         <v>5.792284920568341</v>
       </c>
       <c r="I14" t="n">
-        <v>25.71165856611166</v>
+        <v>25.71165856611157</v>
       </c>
       <c r="J14" t="n">
-        <v>25.71165856611166</v>
+        <v>25.71165856611157</v>
       </c>
       <c r="K14" t="n">
-        <v>73.62316182403667</v>
+        <v>25.71165856611157</v>
       </c>
       <c r="L14" t="n">
-        <v>73.62316182403667</v>
+        <v>71.05236513010925</v>
       </c>
       <c r="M14" t="n">
-        <v>131.8544754279301</v>
+        <v>71.05236513010925</v>
       </c>
       <c r="N14" t="n">
-        <v>192.2118113642801</v>
+        <v>131.4097010664591</v>
       </c>
       <c r="O14" t="n">
-        <v>247.6834700093338</v>
+        <v>186.8813597115127</v>
       </c>
       <c r="P14" t="n">
-        <v>264.4869915215674</v>
+        <v>230.7838529344634</v>
       </c>
       <c r="Q14" t="n">
-        <v>264.4869915215674</v>
+        <v>230.7838529344634</v>
       </c>
       <c r="R14" t="n">
-        <v>289.614246028417</v>
+        <v>274.9240679802544</v>
       </c>
       <c r="S14" t="n">
         <v>289.614246028417</v>
       </c>
       <c r="T14" t="n">
-        <v>289.614246028417</v>
+        <v>282.4369692444783</v>
       </c>
       <c r="U14" t="n">
-        <v>289.614246028417</v>
+        <v>244.8692675131749</v>
       </c>
       <c r="V14" t="n">
-        <v>216.4793354151804</v>
+        <v>171.7343568999383</v>
       </c>
       <c r="W14" t="n">
-        <v>143.3444248019437</v>
+        <v>171.7343568999383</v>
       </c>
       <c r="X14" t="n">
-        <v>143.3444248019437</v>
+        <v>171.7343568999383</v>
       </c>
       <c r="Y14" t="n">
-        <v>143.3444248019437</v>
+        <v>98.59944628670169</v>
       </c>
     </row>
     <row r="15">
@@ -5370,28 +5370,28 @@
         <v>5.792284920568341</v>
       </c>
       <c r="O15" t="n">
-        <v>74.5433935073777</v>
+        <v>74.54339350737796</v>
       </c>
       <c r="P15" t="n">
-        <v>74.5433935073777</v>
+        <v>74.54339350737796</v>
       </c>
       <c r="Q15" t="n">
-        <v>74.5433935073777</v>
+        <v>74.54339350737796</v>
       </c>
       <c r="R15" t="n">
-        <v>74.5433935073777</v>
+        <v>74.54339350737796</v>
       </c>
       <c r="S15" t="n">
-        <v>74.5433935073777</v>
+        <v>74.54339350737796</v>
       </c>
       <c r="T15" t="n">
-        <v>74.5433935073777</v>
+        <v>74.54339350737796</v>
       </c>
       <c r="U15" t="n">
-        <v>62.6172310330647</v>
+        <v>62.61723103306487</v>
       </c>
       <c r="V15" t="n">
-        <v>43.74738222504598</v>
+        <v>43.74738222504607</v>
       </c>
       <c r="W15" t="n">
         <v>5.792284920568341</v>
@@ -5416,67 +5416,67 @@
         <v>5.792284920568341</v>
       </c>
       <c r="D16" t="n">
-        <v>70.64120909372998</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="E16" t="n">
-        <v>70.64120909372998</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="F16" t="n">
-        <v>70.64120909372998</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="G16" t="n">
-        <v>70.64120909372998</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="H16" t="n">
-        <v>70.64120909372998</v>
+        <v>5.792284920568341</v>
       </c>
       <c r="I16" t="n">
-        <v>134.4311715948315</v>
+        <v>69.58224742166971</v>
       </c>
       <c r="J16" t="n">
-        <v>154.5465694990176</v>
+        <v>69.58224742166971</v>
       </c>
       <c r="K16" t="n">
-        <v>154.5465694990176</v>
+        <v>141.2617733137029</v>
       </c>
       <c r="L16" t="n">
-        <v>154.5465694990176</v>
+        <v>181.234381790564</v>
       </c>
       <c r="M16" t="n">
-        <v>154.5465694990176</v>
+        <v>181.234381790564</v>
       </c>
       <c r="N16" t="n">
-        <v>154.5465694990176</v>
+        <v>181.234381790564</v>
       </c>
       <c r="O16" t="n">
-        <v>154.5465694990176</v>
+        <v>181.234381790564</v>
       </c>
       <c r="P16" t="n">
-        <v>154.5465694990176</v>
+        <v>181.234381790564</v>
       </c>
       <c r="Q16" t="n">
-        <v>226.2260953910508</v>
+        <v>181.234381790564</v>
       </c>
       <c r="R16" t="n">
-        <v>226.2260953910508</v>
+        <v>226.2260953910515</v>
       </c>
       <c r="S16" t="n">
-        <v>219.6037517952375</v>
+        <v>219.603751795238</v>
       </c>
       <c r="T16" t="n">
-        <v>206.4653541307979</v>
+        <v>206.4653541307983</v>
       </c>
       <c r="U16" t="n">
-        <v>133.5470355100673</v>
+        <v>133.5470355100676</v>
       </c>
       <c r="V16" t="n">
-        <v>95.14480672790441</v>
+        <v>95.14480672790468</v>
       </c>
       <c r="W16" t="n">
-        <v>22.00989611466779</v>
+        <v>22.00989611466796</v>
       </c>
       <c r="X16" t="n">
-        <v>10.30260464037445</v>
+        <v>10.30260464037453</v>
       </c>
       <c r="Y16" t="n">
         <v>5.792284920568341</v>
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>192.0717728635525</v>
+        <v>192.0717728635527</v>
       </c>
       <c r="C17" t="n">
-        <v>174.4670340247067</v>
+        <v>174.4670340247069</v>
       </c>
       <c r="D17" t="n">
-        <v>167.5591135195219</v>
+        <v>167.5591135195222</v>
       </c>
       <c r="E17" t="n">
-        <v>133.1286390228435</v>
+        <v>133.1286390228437</v>
       </c>
       <c r="F17" t="n">
         <v>73.50051233480211</v>
@@ -5507,58 +5507,58 @@
         <v>5.792284920568341</v>
       </c>
       <c r="H17" t="n">
-        <v>5.792284920568341</v>
+        <v>18.41124773260453</v>
       </c>
       <c r="I17" t="n">
-        <v>5.792284920568341</v>
+        <v>18.41124773260453</v>
       </c>
       <c r="J17" t="n">
-        <v>74.57566835231739</v>
+        <v>18.41124773260453</v>
       </c>
       <c r="K17" t="n">
-        <v>74.57566835231739</v>
+        <v>18.41124773260453</v>
       </c>
       <c r="L17" t="n">
-        <v>74.57566835231739</v>
+        <v>90.09077362463775</v>
       </c>
       <c r="M17" t="n">
-        <v>74.57566835231739</v>
+        <v>161.7702995166709</v>
       </c>
       <c r="N17" t="n">
-        <v>74.57566835231739</v>
+        <v>161.7702995166709</v>
       </c>
       <c r="O17" t="n">
-        <v>146.2551942443506</v>
+        <v>161.7702995166709</v>
       </c>
       <c r="P17" t="n">
-        <v>217.9347201363838</v>
+        <v>233.4498254087042</v>
       </c>
       <c r="Q17" t="n">
-        <v>289.614246028417</v>
+        <v>269.723223596506</v>
       </c>
       <c r="R17" t="n">
-        <v>289.614246028417</v>
+        <v>269.723223596506</v>
       </c>
       <c r="S17" t="n">
-        <v>289.614246028417</v>
+        <v>269.723223596506</v>
       </c>
       <c r="T17" t="n">
-        <v>289.614246028417</v>
+        <v>269.723223596506</v>
       </c>
       <c r="U17" t="n">
-        <v>289.614246028417</v>
+        <v>269.723223596506</v>
       </c>
       <c r="V17" t="n">
         <v>289.614246028417</v>
       </c>
       <c r="W17" t="n">
-        <v>288.2033688598686</v>
+        <v>288.2033688598688</v>
       </c>
       <c r="X17" t="n">
-        <v>266.0953887003545</v>
+        <v>266.0953887003547</v>
       </c>
       <c r="Y17" t="n">
-        <v>227.3138348261085</v>
+        <v>227.3138348261087</v>
       </c>
     </row>
     <row r="18">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>192.071772863553</v>
+        <v>192.0717728635524</v>
       </c>
       <c r="C20" t="n">
-        <v>174.467034024707</v>
+        <v>174.4670340247064</v>
       </c>
       <c r="D20" t="n">
-        <v>167.5591135195223</v>
+        <v>167.5591135195218</v>
       </c>
       <c r="E20" t="n">
-        <v>133.1286390228439</v>
+        <v>133.1286390228438</v>
       </c>
       <c r="F20" t="n">
-        <v>73.50051233480205</v>
+        <v>73.50051233480211</v>
       </c>
       <c r="G20" t="n">
         <v>5.792284920568341</v>
@@ -5747,37 +5747,37 @@
         <v>5.792284920568341</v>
       </c>
       <c r="I20" t="n">
-        <v>5.792284920568341</v>
+        <v>77.47181081260155</v>
       </c>
       <c r="J20" t="n">
-        <v>5.792284920568341</v>
+        <v>77.47181081260155</v>
       </c>
       <c r="K20" t="n">
-        <v>5.792284920568341</v>
+        <v>77.47181081260155</v>
       </c>
       <c r="L20" t="n">
-        <v>74.57566835231739</v>
+        <v>77.47181081260155</v>
       </c>
       <c r="M20" t="n">
-        <v>74.57566835231739</v>
+        <v>77.47181081260155</v>
       </c>
       <c r="N20" t="n">
-        <v>74.57566835231739</v>
+        <v>77.47181081260155</v>
       </c>
       <c r="O20" t="n">
-        <v>74.57566835231739</v>
+        <v>77.47181081260155</v>
       </c>
       <c r="P20" t="n">
-        <v>74.57566835231739</v>
+        <v>149.1513367046348</v>
       </c>
       <c r="Q20" t="n">
-        <v>146.2551942443506</v>
+        <v>217.9347201363838</v>
       </c>
       <c r="R20" t="n">
-        <v>146.2551942443506</v>
+        <v>289.614246028417</v>
       </c>
       <c r="S20" t="n">
-        <v>217.9347201363838</v>
+        <v>289.614246028417</v>
       </c>
       <c r="T20" t="n">
         <v>289.614246028417</v>
@@ -5789,13 +5789,13 @@
         <v>289.614246028417</v>
       </c>
       <c r="W20" t="n">
-        <v>288.2033688598688</v>
+        <v>288.2033688598685</v>
       </c>
       <c r="X20" t="n">
-        <v>266.0953887003548</v>
+        <v>266.0953887003545</v>
       </c>
       <c r="Y20" t="n">
-        <v>227.3138348261089</v>
+        <v>227.3138348261084</v>
       </c>
     </row>
     <row r="21">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>192.0717728635528</v>
+        <v>192.0717728635524</v>
       </c>
       <c r="C23" t="n">
-        <v>174.4670340247069</v>
+        <v>174.4670340247064</v>
       </c>
       <c r="D23" t="n">
-        <v>167.5591135195223</v>
+        <v>167.5591135195218</v>
       </c>
       <c r="E23" t="n">
-        <v>133.1286390228439</v>
+        <v>133.1286390228438</v>
       </c>
       <c r="F23" t="n">
-        <v>73.50051233480205</v>
+        <v>73.50051233480212</v>
       </c>
       <c r="G23" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="H23" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="I23" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="J23" t="n">
-        <v>77.47181081260155</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="K23" t="n">
-        <v>77.47181081260155</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="L23" t="n">
-        <v>77.47181081260155</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="M23" t="n">
-        <v>77.47181081260155</v>
+        <v>77.47181081260162</v>
       </c>
       <c r="N23" t="n">
-        <v>77.47181081260155</v>
+        <v>77.47181081260162</v>
       </c>
       <c r="O23" t="n">
-        <v>149.1513367046348</v>
+        <v>77.47181081260162</v>
       </c>
       <c r="P23" t="n">
-        <v>149.1513367046348</v>
+        <v>77.47181081260162</v>
       </c>
       <c r="Q23" t="n">
-        <v>220.830862596668</v>
+        <v>77.47181081260162</v>
       </c>
       <c r="R23" t="n">
-        <v>220.830862596668</v>
+        <v>149.1513367046349</v>
       </c>
       <c r="S23" t="n">
-        <v>289.614246028417</v>
+        <v>217.934720136384</v>
       </c>
       <c r="T23" t="n">
-        <v>289.614246028417</v>
+        <v>217.934720136384</v>
       </c>
       <c r="U23" t="n">
-        <v>289.614246028417</v>
+        <v>289.6142460284173</v>
       </c>
       <c r="V23" t="n">
-        <v>289.614246028417</v>
+        <v>289.6142460284173</v>
       </c>
       <c r="W23" t="n">
-        <v>288.2033688598687</v>
+        <v>288.2033688598685</v>
       </c>
       <c r="X23" t="n">
-        <v>266.0953887003546</v>
+        <v>266.0953887003545</v>
       </c>
       <c r="Y23" t="n">
-        <v>227.3138348261087</v>
+        <v>227.3138348261084</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="C24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="D24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="E24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="F24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="G24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="H24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="I24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="J24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="K24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="L24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="M24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="N24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="O24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="P24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="Q24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="R24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="S24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="T24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="U24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="V24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="W24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="X24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="C25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="D25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="E25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="F25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="G25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="H25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="I25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="J25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="K25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="L25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="M25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="N25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="O25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="P25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="R25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="S25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="T25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="U25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="V25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="W25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="X25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>975.2411681339775</v>
+        <v>975.2411681339781</v>
       </c>
       <c r="C26" t="n">
-        <v>829.7381874012286</v>
+        <v>829.7381874012291</v>
       </c>
       <c r="D26" t="n">
-        <v>694.9320250021407</v>
+        <v>694.9320250021411</v>
       </c>
       <c r="E26" t="n">
-        <v>532.603308611559</v>
+        <v>532.6033086115594</v>
       </c>
       <c r="F26" t="n">
-        <v>345.0769400296139</v>
+        <v>345.0769400296144</v>
       </c>
       <c r="G26" t="n">
         <v>149.4704707214771</v>
@@ -6221,31 +6221,31 @@
         <v>34.44740769915455</v>
       </c>
       <c r="I26" t="n">
-        <v>61.40123032063605</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="J26" t="n">
-        <v>304.4957480179195</v>
+        <v>110.136276376085</v>
       </c>
       <c r="K26" t="n">
-        <v>444.4338801835314</v>
+        <v>485.9861870554013</v>
       </c>
       <c r="L26" t="n">
-        <v>496.8090357234673</v>
+        <v>538.3613425953372</v>
       </c>
       <c r="M26" t="n">
-        <v>923.0957060005049</v>
+        <v>603.6271051751688</v>
       </c>
       <c r="N26" t="n">
-        <v>990.4874909127931</v>
+        <v>1029.913775452206</v>
       </c>
       <c r="O26" t="n">
-        <v>1416.774161189831</v>
+        <v>1250.399371086186</v>
       </c>
       <c r="P26" t="n">
-        <v>1567.279133041357</v>
+        <v>1475.190076284954</v>
       </c>
       <c r="Q26" t="n">
-        <v>1700.645757933627</v>
+        <v>1668.484054450839</v>
       </c>
       <c r="R26" t="n">
         <v>1700.645757933627</v>
@@ -6288,58 +6288,58 @@
         <v>34.44740769915455</v>
       </c>
       <c r="E27" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="F27" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="G27" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="H27" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="I27" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="J27" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="K27" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="L27" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="M27" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="N27" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="O27" t="n">
-        <v>81.66668593414828</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="P27" t="n">
-        <v>81.66668593414828</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="Q27" t="n">
-        <v>81.66668593414828</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="R27" t="n">
-        <v>81.66668593414828</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="S27" t="n">
-        <v>81.66668593414828</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="T27" t="n">
-        <v>81.66668593414828</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="U27" t="n">
-        <v>76.91780024377381</v>
+        <v>76.91780024377375</v>
       </c>
       <c r="V27" t="n">
-        <v>65.22522821969365</v>
+        <v>65.22522821969362</v>
       </c>
       <c r="W27" t="n">
         <v>34.44740769915455</v>
@@ -6382,46 +6382,46 @@
         <v>34.44740769915455</v>
       </c>
       <c r="J28" t="n">
-        <v>93.97784415398371</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="K28" t="n">
-        <v>207.3182809166434</v>
+        <v>147.7878444618142</v>
       </c>
       <c r="L28" t="n">
-        <v>207.3182809166434</v>
+        <v>147.7878444618142</v>
       </c>
       <c r="M28" t="n">
-        <v>207.3182809166434</v>
+        <v>147.7878444618142</v>
       </c>
       <c r="N28" t="n">
-        <v>207.3182809166434</v>
+        <v>147.7878444618142</v>
       </c>
       <c r="O28" t="n">
-        <v>207.3182809166434</v>
+        <v>147.7878444618142</v>
       </c>
       <c r="P28" t="n">
-        <v>207.3182809166434</v>
+        <v>207.8621709343247</v>
       </c>
       <c r="Q28" t="n">
-        <v>207.3182809166434</v>
+        <v>207.8621709343247</v>
       </c>
       <c r="R28" t="n">
-        <v>207.3182809166434</v>
+        <v>207.8621709343247</v>
       </c>
       <c r="S28" t="n">
-        <v>207.8621709343248</v>
+        <v>207.8621709343247</v>
       </c>
       <c r="T28" t="n">
-        <v>201.9010500538238</v>
+        <v>201.9010500538237</v>
       </c>
       <c r="U28" t="n">
-        <v>136.1600082170318</v>
+        <v>136.1600082170317</v>
       </c>
       <c r="V28" t="n">
         <v>104.9350562188074</v>
       </c>
       <c r="W28" t="n">
-        <v>38.97742238950935</v>
+        <v>38.97742238950932</v>
       </c>
       <c r="X28" t="n">
         <v>34.44740769915455</v>
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>975.2411681339781</v>
+        <v>975.2411681339772</v>
       </c>
       <c r="C29" t="n">
-        <v>829.7381874012291</v>
+        <v>829.7381874012281</v>
       </c>
       <c r="D29" t="n">
-        <v>694.9320250021411</v>
+        <v>694.9320250021401</v>
       </c>
       <c r="E29" t="n">
-        <v>532.6033086115594</v>
+        <v>532.6033086115585</v>
       </c>
       <c r="F29" t="n">
-        <v>345.0769400296144</v>
+        <v>345.0769400296135</v>
       </c>
       <c r="G29" t="n">
         <v>149.4704707214771</v>
@@ -6458,34 +6458,34 @@
         <v>34.44740769915455</v>
       </c>
       <c r="I29" t="n">
-        <v>61.40123032063607</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="J29" t="n">
-        <v>304.4957480179195</v>
+        <v>110.1362763760849</v>
       </c>
       <c r="K29" t="n">
-        <v>680.3456586972359</v>
+        <v>485.9861870554013</v>
       </c>
       <c r="L29" t="n">
-        <v>680.3456586972359</v>
+        <v>485.9861870554013</v>
       </c>
       <c r="M29" t="n">
-        <v>1106.632328974274</v>
+        <v>912.2728573324389</v>
       </c>
       <c r="N29" t="n">
-        <v>1174.024113886562</v>
+        <v>944.0488579214774</v>
       </c>
       <c r="O29" t="n">
-        <v>1236.530221507554</v>
+        <v>1370.335528198515</v>
       </c>
       <c r="P29" t="n">
-        <v>1445.831860331455</v>
+        <v>1370.335528198515</v>
       </c>
       <c r="Q29" t="n">
-        <v>1700.645757933627</v>
+        <v>1625.149425800687</v>
       </c>
       <c r="R29" t="n">
-        <v>1700.645757933627</v>
+        <v>1722.370384957728</v>
       </c>
       <c r="S29" t="n">
         <v>1722.370384957728</v>
@@ -6506,7 +6506,7 @@
         <v>1305.061267758586</v>
       </c>
       <c r="Y29" t="n">
-        <v>1138.381471990437</v>
+        <v>1138.381471990436</v>
       </c>
     </row>
     <row r="30">
@@ -6516,67 +6516,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>81.66668593414819</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="C30" t="n">
-        <v>81.66668593414819</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="D30" t="n">
-        <v>81.66668593414819</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="E30" t="n">
-        <v>81.66668593414819</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="F30" t="n">
-        <v>81.66668593414819</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="G30" t="n">
-        <v>81.66668593414819</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="H30" t="n">
-        <v>81.66668593414819</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="I30" t="n">
-        <v>81.66668593414819</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="J30" t="n">
-        <v>81.66668593414819</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="K30" t="n">
-        <v>81.66668593414819</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="L30" t="n">
-        <v>81.66668593414819</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="M30" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="N30" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="O30" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="P30" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="Q30" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="R30" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="S30" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="T30" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="U30" t="n">
-        <v>76.91780024377375</v>
+        <v>76.91780024377381</v>
       </c>
       <c r="V30" t="n">
-        <v>65.22522821969362</v>
+        <v>65.22522821969365</v>
       </c>
       <c r="W30" t="n">
         <v>34.44740769915455</v>
@@ -6622,43 +6622,43 @@
         <v>34.44740769915455</v>
       </c>
       <c r="K31" t="n">
-        <v>34.44740769915455</v>
+        <v>147.7878444618142</v>
       </c>
       <c r="L31" t="n">
-        <v>99.09461837230741</v>
+        <v>147.7878444618142</v>
       </c>
       <c r="M31" t="n">
-        <v>99.09461837230741</v>
+        <v>147.7878444618142</v>
       </c>
       <c r="N31" t="n">
-        <v>99.09461837230741</v>
+        <v>147.7878444618142</v>
       </c>
       <c r="O31" t="n">
-        <v>207.8621709343247</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="P31" t="n">
-        <v>207.8621709343247</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="Q31" t="n">
-        <v>207.8621709343247</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="R31" t="n">
-        <v>207.8621709343247</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="S31" t="n">
-        <v>207.8621709343247</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="T31" t="n">
-        <v>201.9010500538237</v>
+        <v>201.9010500538238</v>
       </c>
       <c r="U31" t="n">
-        <v>136.1600082170317</v>
+        <v>136.1600082170318</v>
       </c>
       <c r="V31" t="n">
         <v>104.9350562188074</v>
       </c>
       <c r="W31" t="n">
-        <v>38.97742238950932</v>
+        <v>38.97742238950935</v>
       </c>
       <c r="X31" t="n">
         <v>34.44740769915455</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>975.2411681339772</v>
+        <v>975.2411681339775</v>
       </c>
       <c r="C32" t="n">
-        <v>829.7381874012281</v>
+        <v>829.7381874012284</v>
       </c>
       <c r="D32" t="n">
-        <v>694.9320250021401</v>
+        <v>694.9320250021406</v>
       </c>
       <c r="E32" t="n">
-        <v>532.6033086115585</v>
+        <v>532.6033086115589</v>
       </c>
       <c r="F32" t="n">
-        <v>345.0769400296135</v>
+        <v>345.076940029614</v>
       </c>
       <c r="G32" t="n">
         <v>149.4704707214771</v>
@@ -6695,31 +6695,31 @@
         <v>34.44740769915455</v>
       </c>
       <c r="I32" t="n">
-        <v>34.44740769915455</v>
+        <v>61.40123032063612</v>
       </c>
       <c r="J32" t="n">
-        <v>110.1362763760849</v>
+        <v>137.0900989975666</v>
       </c>
       <c r="K32" t="n">
-        <v>110.1362763760849</v>
+        <v>137.0900989975666</v>
       </c>
       <c r="L32" t="n">
-        <v>162.5114319160209</v>
+        <v>563.3767692746042</v>
       </c>
       <c r="M32" t="n">
-        <v>453.7829012166267</v>
+        <v>989.6634395516418</v>
       </c>
       <c r="N32" t="n">
-        <v>880.0695714936643</v>
+        <v>1271.015988194664</v>
       </c>
       <c r="O32" t="n">
-        <v>979.0932378857576</v>
+        <v>1333.522095815656</v>
       </c>
       <c r="P32" t="n">
-        <v>1348.610901174414</v>
+        <v>1384.459038014545</v>
       </c>
       <c r="Q32" t="n">
-        <v>1603.424798776587</v>
+        <v>1603.424798776586</v>
       </c>
       <c r="R32" t="n">
         <v>1700.645757933627</v>
@@ -6731,16 +6731,16 @@
         <v>1722.370384957728</v>
       </c>
       <c r="U32" t="n">
-        <v>1691.979960010363</v>
+        <v>1691.979960010362</v>
       </c>
       <c r="V32" t="n">
-        <v>1584.376608874455</v>
+        <v>1584.376608874454</v>
       </c>
       <c r="W32" t="n">
         <v>1455.067489812003</v>
       </c>
       <c r="X32" t="n">
-        <v>1305.061267758586</v>
+        <v>1305.061267758585</v>
       </c>
       <c r="Y32" t="n">
         <v>1138.381471990436</v>
@@ -6798,22 +6798,22 @@
         <v>34.44740769915455</v>
       </c>
       <c r="Q33" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414802</v>
       </c>
       <c r="R33" t="n">
-        <v>81.66668593414828</v>
+        <v>81.66668593414802</v>
       </c>
       <c r="S33" t="n">
-        <v>81.66668593414828</v>
+        <v>81.66668593414802</v>
       </c>
       <c r="T33" t="n">
-        <v>81.66668593414828</v>
+        <v>81.66668593414802</v>
       </c>
       <c r="U33" t="n">
-        <v>76.91780024377381</v>
+        <v>76.91780024377364</v>
       </c>
       <c r="V33" t="n">
-        <v>65.22522821969365</v>
+        <v>65.22522821969356</v>
       </c>
       <c r="W33" t="n">
         <v>34.44740769915455</v>
@@ -6847,55 +6847,55 @@
         <v>34.44740769915455</v>
       </c>
       <c r="G34" t="n">
-        <v>87.33882579993778</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="H34" t="n">
-        <v>87.33882579993778</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="I34" t="n">
-        <v>87.33882579993778</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="J34" t="n">
-        <v>87.33882579993778</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="K34" t="n">
-        <v>102.2452123755973</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="L34" t="n">
-        <v>102.2452123755973</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="M34" t="n">
-        <v>102.2452123755973</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="N34" t="n">
-        <v>102.2452123755973</v>
+        <v>107.1822575800538</v>
       </c>
       <c r="O34" t="n">
-        <v>102.2452123755973</v>
+        <v>158.3483684071647</v>
       </c>
       <c r="P34" t="n">
-        <v>207.8621709343248</v>
+        <v>158.3483684071647</v>
       </c>
       <c r="Q34" t="n">
-        <v>207.8621709343248</v>
+        <v>158.3483684071647</v>
       </c>
       <c r="R34" t="n">
-        <v>207.8621709343248</v>
+        <v>207.8621709343244</v>
       </c>
       <c r="S34" t="n">
-        <v>207.8621709343248</v>
+        <v>207.8621709343244</v>
       </c>
       <c r="T34" t="n">
-        <v>201.9010500538238</v>
+        <v>201.9010500538235</v>
       </c>
       <c r="U34" t="n">
-        <v>136.1600082170318</v>
+        <v>136.1600082170315</v>
       </c>
       <c r="V34" t="n">
-        <v>104.9350562188074</v>
+        <v>104.9350562188073</v>
       </c>
       <c r="W34" t="n">
-        <v>38.97742238950935</v>
+        <v>38.97742238950926</v>
       </c>
       <c r="X34" t="n">
         <v>34.44740769915455</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>827.5379026594851</v>
+        <v>827.5379026594856</v>
       </c>
       <c r="C35" t="n">
-        <v>705.6867520190566</v>
+        <v>705.6867520190572</v>
       </c>
       <c r="D35" t="n">
-        <v>594.5324197122893</v>
+        <v>594.5324197122899</v>
       </c>
       <c r="E35" t="n">
-        <v>455.8555334140283</v>
+        <v>455.8555334140289</v>
       </c>
       <c r="F35" t="n">
-        <v>291.980994924404</v>
+        <v>291.9809949244045</v>
       </c>
       <c r="G35" t="n">
         <v>120.0263557085881</v>
@@ -6935,25 +6935,25 @@
         <v>78.79010407355122</v>
       </c>
       <c r="J35" t="n">
-        <v>345.0657804443181</v>
+        <v>78.79010407355122</v>
       </c>
       <c r="K35" t="n">
-        <v>423.1928913516648</v>
+        <v>78.79010407355122</v>
       </c>
       <c r="L35" t="n">
-        <v>498.7492055650843</v>
+        <v>433.3972484585556</v>
       </c>
       <c r="M35" t="n">
-        <v>853.3563499500887</v>
+        <v>788.00439284356</v>
       </c>
       <c r="N35" t="n">
-        <v>889.5563781229085</v>
+        <v>889.6599323427145</v>
       </c>
       <c r="O35" t="n">
-        <v>975.243644417384</v>
+        <v>1244.267076727719</v>
       </c>
       <c r="P35" t="n">
-        <v>1049.361745289756</v>
+        <v>1244.267076727719</v>
       </c>
       <c r="Q35" t="n">
         <v>1244.267076727719</v>
@@ -6971,7 +6971,7 @@
         <v>1426.017544074267</v>
       </c>
       <c r="V35" t="n">
-        <v>1342.066023030679</v>
+        <v>1342.06602303068</v>
       </c>
       <c r="W35" t="n">
         <v>1236.408734060549</v>
@@ -6980,7 +6980,7 @@
         <v>1110.054342099452</v>
       </c>
       <c r="Y35" t="n">
-        <v>967.0263764236234</v>
+        <v>967.0263764236239</v>
       </c>
     </row>
     <row r="36">
@@ -7002,52 +7002,52 @@
         <v>28.65512277858621</v>
       </c>
       <c r="F36" t="n">
-        <v>35.7811132068046</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="G36" t="n">
-        <v>35.7811132068046</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="H36" t="n">
-        <v>35.7811132068046</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="I36" t="n">
-        <v>35.7811132068046</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="J36" t="n">
-        <v>35.7811132068046</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="K36" t="n">
-        <v>35.7811132068046</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="L36" t="n">
-        <v>35.7811132068046</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="M36" t="n">
-        <v>35.7811132068046</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="N36" t="n">
-        <v>35.7811132068046</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="O36" t="n">
-        <v>35.7811132068046</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="P36" t="n">
-        <v>35.7811132068046</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.7811132068046</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="R36" t="n">
-        <v>35.7811132068046</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="S36" t="n">
-        <v>35.7811132068046</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="T36" t="n">
-        <v>35.7811132068046</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="U36" t="n">
-        <v>35.7811132068046</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="V36" t="n">
         <v>35.7811132068046</v>
@@ -7093,28 +7093,28 @@
         <v>28.65512277858621</v>
       </c>
       <c r="J37" t="n">
-        <v>45.4159389160293</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="K37" t="n">
-        <v>45.4159389160293</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="L37" t="n">
-        <v>45.4159389160293</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="M37" t="n">
-        <v>45.4159389160293</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="N37" t="n">
-        <v>45.4159389160293</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="O37" t="n">
-        <v>45.4159389160293</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="P37" t="n">
-        <v>45.4159389160293</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="Q37" t="n">
-        <v>45.4159389160293</v>
+        <v>120.6232601659386</v>
       </c>
       <c r="R37" t="n">
         <v>120.6232601659386</v>
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>827.5379026594857</v>
+        <v>827.5379026594854</v>
       </c>
       <c r="C38" t="n">
-        <v>705.6867520190573</v>
+        <v>705.6867520190571</v>
       </c>
       <c r="D38" t="n">
-        <v>594.53241971229</v>
+        <v>594.5324197122899</v>
       </c>
       <c r="E38" t="n">
         <v>455.855533414029</v>
@@ -7163,49 +7163,49 @@
         <v>291.9809949244047</v>
       </c>
       <c r="G38" t="n">
-        <v>120.0263557085881</v>
+        <v>120.026355708588</v>
       </c>
       <c r="H38" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="I38" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="J38" t="n">
-        <v>127.5251501290001</v>
+        <v>127.5251501290002</v>
       </c>
       <c r="K38" t="n">
-        <v>190.1513487329085</v>
+        <v>482.1322945140046</v>
       </c>
       <c r="L38" t="n">
-        <v>437.5470215062755</v>
+        <v>482.1322945140046</v>
       </c>
       <c r="M38" t="n">
-        <v>525.9939427595907</v>
+        <v>570.5792157673199</v>
       </c>
       <c r="N38" t="n">
-        <v>880.6010871445953</v>
+        <v>570.5792157673199</v>
       </c>
       <c r="O38" t="n">
-        <v>1235.2082315296</v>
+        <v>821.856716820364</v>
       </c>
       <c r="P38" t="n">
-        <v>1309.326332401972</v>
+        <v>1176.463861205368</v>
       </c>
       <c r="Q38" t="n">
-        <v>1309.326332401972</v>
+        <v>1244.267076727719</v>
       </c>
       <c r="R38" t="n">
-        <v>1364.669194558244</v>
+        <v>1364.669194558243</v>
       </c>
       <c r="S38" t="n">
-        <v>1409.574980255828</v>
+        <v>1409.574980255827</v>
       </c>
       <c r="T38" t="n">
-        <v>1432.756138929312</v>
+        <v>1432.756138929311</v>
       </c>
       <c r="U38" t="n">
-        <v>1426.017544074268</v>
+        <v>1426.017544074267</v>
       </c>
       <c r="V38" t="n">
         <v>1342.06602303068</v>
@@ -7214,10 +7214,10 @@
         <v>1236.408734060549</v>
       </c>
       <c r="X38" t="n">
-        <v>1110.054342099453</v>
+        <v>1110.054342099452</v>
       </c>
       <c r="Y38" t="n">
-        <v>967.0263764236242</v>
+        <v>967.0263764236239</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="C39" t="n">
-        <v>35.78111320680462</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="D39" t="n">
-        <v>35.78111320680462</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="E39" t="n">
-        <v>35.78111320680462</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="F39" t="n">
-        <v>35.78111320680462</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="G39" t="n">
-        <v>35.78111320680462</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="H39" t="n">
-        <v>35.78111320680462</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="I39" t="n">
-        <v>35.78111320680462</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="J39" t="n">
-        <v>35.78111320680462</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="K39" t="n">
-        <v>35.78111320680462</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="L39" t="n">
-        <v>35.78111320680462</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="M39" t="n">
-        <v>35.78111320680462</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="N39" t="n">
-        <v>35.78111320680462</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="O39" t="n">
-        <v>35.78111320680462</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="P39" t="n">
-        <v>35.78111320680462</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.78111320680462</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="R39" t="n">
-        <v>35.78111320680462</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="S39" t="n">
-        <v>35.78111320680462</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="T39" t="n">
-        <v>35.78111320680462</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="U39" t="n">
-        <v>35.78111320680462</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="V39" t="n">
-        <v>35.78111320680462</v>
+        <v>35.78111320680451</v>
       </c>
       <c r="W39" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="X39" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="Y39" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.39641405405303</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="C40" t="n">
-        <v>47.39641405405303</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="D40" t="n">
-        <v>47.39641405405303</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="E40" t="n">
-        <v>47.39641405405303</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="F40" t="n">
-        <v>47.39641405405303</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="G40" t="n">
-        <v>47.39641405405303</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="H40" t="n">
-        <v>47.39641405405303</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="I40" t="n">
-        <v>47.39641405405303</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="J40" t="n">
-        <v>47.39641405405303</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="K40" t="n">
-        <v>47.39641405405303</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="L40" t="n">
-        <v>47.39641405405303</v>
+        <v>96.89821147477325</v>
       </c>
       <c r="M40" t="n">
-        <v>47.39641405405303</v>
+        <v>96.89821147477325</v>
       </c>
       <c r="N40" t="n">
-        <v>96.89821147477362</v>
+        <v>96.89821147477325</v>
       </c>
       <c r="O40" t="n">
-        <v>96.89821147477362</v>
+        <v>96.89821147477325</v>
       </c>
       <c r="P40" t="n">
-        <v>96.89821147477362</v>
+        <v>96.89821147477325</v>
       </c>
       <c r="Q40" t="n">
-        <v>96.89821147477362</v>
+        <v>96.89821147477325</v>
       </c>
       <c r="R40" t="n">
-        <v>96.89821147477362</v>
+        <v>96.89821147477325</v>
       </c>
       <c r="S40" t="n">
-        <v>120.6232601659386</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="T40" t="n">
-        <v>120.6232601659386</v>
+        <v>120.6232601659383</v>
       </c>
       <c r="U40" t="n">
-        <v>78.53404842146725</v>
+        <v>78.53404842146705</v>
       </c>
       <c r="V40" t="n">
-        <v>70.96092651556361</v>
+        <v>70.9609265155635</v>
       </c>
       <c r="W40" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="X40" t="n">
-        <v>47.39641405405303</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.39641405405303</v>
+        <v>28.65512277858621</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>827.5379026594845</v>
+        <v>827.5379026594849</v>
       </c>
       <c r="C41" t="n">
-        <v>705.686752019056</v>
+        <v>705.6867520190565</v>
       </c>
       <c r="D41" t="n">
-        <v>594.5324197122889</v>
+        <v>594.5324197122893</v>
       </c>
       <c r="E41" t="n">
-        <v>455.8555334140281</v>
+        <v>455.8555334140285</v>
       </c>
       <c r="F41" t="n">
-        <v>291.9809949244038</v>
+        <v>291.9809949244043</v>
       </c>
       <c r="G41" t="n">
-        <v>120.0263557085883</v>
+        <v>120.0263557085881</v>
       </c>
       <c r="H41" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="I41" t="n">
-        <v>78.79010407355111</v>
+        <v>78.79010407355125</v>
       </c>
       <c r="J41" t="n">
-        <v>345.0657804443179</v>
+        <v>345.0657804443182</v>
       </c>
       <c r="K41" t="n">
-        <v>699.6729248293225</v>
+        <v>423.1928913516649</v>
       </c>
       <c r="L41" t="n">
-        <v>775.2292390427418</v>
+        <v>777.8000357366693</v>
       </c>
       <c r="M41" t="n">
-        <v>863.6761602960569</v>
+        <v>866.2469569899845</v>
       </c>
       <c r="N41" t="n">
-        <v>863.6761602960569</v>
+        <v>1103.950028500318</v>
       </c>
       <c r="O41" t="n">
-        <v>863.6761602960569</v>
+        <v>1134.347769690304</v>
       </c>
       <c r="P41" t="n">
-        <v>1086.674138282589</v>
+        <v>1208.465870562676</v>
       </c>
       <c r="Q41" t="n">
-        <v>1364.669194558244</v>
+        <v>1244.267076727719</v>
       </c>
       <c r="R41" t="n">
-        <v>1364.669194558244</v>
+        <v>1364.669194558243</v>
       </c>
       <c r="S41" t="n">
-        <v>1409.574980255828</v>
+        <v>1409.574980255827</v>
       </c>
       <c r="T41" t="n">
-        <v>1432.756138929312</v>
+        <v>1432.756138929311</v>
       </c>
       <c r="U41" t="n">
-        <v>1426.017544074268</v>
+        <v>1426.017544074267</v>
       </c>
       <c r="V41" t="n">
-        <v>1342.06602303068</v>
+        <v>1342.066023030679</v>
       </c>
       <c r="W41" t="n">
-        <v>1236.408734060549</v>
+        <v>1236.408734060548</v>
       </c>
       <c r="X41" t="n">
         <v>1110.054342099452</v>
       </c>
       <c r="Y41" t="n">
-        <v>967.0263764236232</v>
+        <v>967.0263764236233</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="C42" t="n">
-        <v>35.78111320680476</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="D42" t="n">
-        <v>35.78111320680476</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="E42" t="n">
-        <v>35.78111320680476</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="F42" t="n">
-        <v>35.78111320680476</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="G42" t="n">
-        <v>35.78111320680476</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="H42" t="n">
-        <v>35.78111320680476</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="I42" t="n">
-        <v>35.78111320680476</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="J42" t="n">
-        <v>35.78111320680476</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="K42" t="n">
-        <v>35.78111320680476</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="L42" t="n">
-        <v>35.78111320680476</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="M42" t="n">
-        <v>35.78111320680476</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="N42" t="n">
-        <v>35.78111320680476</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="O42" t="n">
-        <v>35.78111320680476</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="P42" t="n">
-        <v>35.78111320680476</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.78111320680476</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="R42" t="n">
-        <v>35.78111320680476</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="S42" t="n">
-        <v>35.78111320680476</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="T42" t="n">
-        <v>35.78111320680476</v>
+        <v>35.78111320680457</v>
       </c>
       <c r="U42" t="n">
-        <v>35.78111320680476</v>
+        <v>35.78111320680457</v>
       </c>
       <c r="V42" t="n">
-        <v>35.78111320680476</v>
+        <v>35.78111320680457</v>
       </c>
       <c r="W42" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="X42" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="Y42" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="C43" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="D43" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="E43" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="F43" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="G43" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="H43" t="n">
-        <v>28.65512277858623</v>
+        <v>96.89821147477348</v>
       </c>
       <c r="I43" t="n">
-        <v>28.65512277858623</v>
+        <v>96.89821147477348</v>
       </c>
       <c r="J43" t="n">
-        <v>28.65512277858623</v>
+        <v>96.89821147477348</v>
       </c>
       <c r="K43" t="n">
-        <v>28.65512277858623</v>
+        <v>96.89821147477348</v>
       </c>
       <c r="L43" t="n">
-        <v>120.623260165939</v>
+        <v>96.89821147477348</v>
       </c>
       <c r="M43" t="n">
-        <v>120.623260165939</v>
+        <v>96.89821147477348</v>
       </c>
       <c r="N43" t="n">
-        <v>120.623260165939</v>
+        <v>96.89821147477348</v>
       </c>
       <c r="O43" t="n">
-        <v>120.623260165939</v>
+        <v>96.89821147477348</v>
       </c>
       <c r="P43" t="n">
-        <v>120.623260165939</v>
+        <v>96.89821147477348</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.623260165939</v>
+        <v>96.89821147477348</v>
       </c>
       <c r="R43" t="n">
-        <v>120.623260165939</v>
+        <v>96.89821147477348</v>
       </c>
       <c r="S43" t="n">
-        <v>120.623260165939</v>
+        <v>120.6232601659385</v>
       </c>
       <c r="T43" t="n">
-        <v>120.623260165939</v>
+        <v>120.6232601659385</v>
       </c>
       <c r="U43" t="n">
-        <v>78.53404842146753</v>
+        <v>78.53404842146716</v>
       </c>
       <c r="V43" t="n">
-        <v>70.96092651556376</v>
+        <v>70.96092651556356</v>
       </c>
       <c r="W43" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="X43" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
     </row>
     <row r="44">
@@ -7622,64 +7622,64 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>827.5379026594854</v>
+        <v>827.5379026594856</v>
       </c>
       <c r="C44" t="n">
-        <v>705.6867520190569</v>
+        <v>705.6867520190574</v>
       </c>
       <c r="D44" t="n">
-        <v>594.5324197122895</v>
+        <v>594.5324197122904</v>
       </c>
       <c r="E44" t="n">
-        <v>455.8555334140283</v>
+        <v>455.8555334140294</v>
       </c>
       <c r="F44" t="n">
-        <v>291.9809949244038</v>
+        <v>291.9809949244052</v>
       </c>
       <c r="G44" t="n">
-        <v>120.0263557085883</v>
+        <v>120.026355708588</v>
       </c>
       <c r="H44" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="I44" t="n">
-        <v>28.65512277858623</v>
+        <v>78.79010407355133</v>
       </c>
       <c r="J44" t="n">
-        <v>111.3620967884157</v>
+        <v>177.6601314239654</v>
       </c>
       <c r="K44" t="n">
-        <v>230.85082738378</v>
+        <v>255.7872423313122</v>
       </c>
       <c r="L44" t="n">
-        <v>585.4579717687847</v>
+        <v>331.3435565447317</v>
       </c>
       <c r="M44" t="n">
-        <v>673.9048930220997</v>
+        <v>685.9507009297361</v>
       </c>
       <c r="N44" t="n">
-        <v>1028.512037407104</v>
+        <v>856.5715683564125</v>
       </c>
       <c r="O44" t="n">
-        <v>1114.19930370158</v>
+        <v>942.258834650888</v>
       </c>
       <c r="P44" t="n">
-        <v>1264.704275553106</v>
+        <v>1296.865979035892</v>
       </c>
       <c r="Q44" t="n">
-        <v>1332.507491075456</v>
+        <v>1364.669194558243</v>
       </c>
       <c r="R44" t="n">
-        <v>1387.850353231727</v>
+        <v>1364.669194558243</v>
       </c>
       <c r="S44" t="n">
-        <v>1432.756138929312</v>
+        <v>1409.574980255827</v>
       </c>
       <c r="T44" t="n">
-        <v>1432.756138929312</v>
+        <v>1432.756138929311</v>
       </c>
       <c r="U44" t="n">
-        <v>1426.017544074268</v>
+        <v>1426.017544074267</v>
       </c>
       <c r="V44" t="n">
         <v>1342.06602303068</v>
@@ -7688,10 +7688,10 @@
         <v>1236.408734060549</v>
       </c>
       <c r="X44" t="n">
-        <v>1110.054342099453</v>
+        <v>1110.054342099452</v>
       </c>
       <c r="Y44" t="n">
-        <v>967.0263764236241</v>
+        <v>967.026376423624</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="C45" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="D45" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="E45" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="F45" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="G45" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="H45" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="I45" t="n">
-        <v>35.78111320680476</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="J45" t="n">
-        <v>35.78111320680476</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="K45" t="n">
-        <v>35.78111320680476</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="L45" t="n">
-        <v>35.78111320680476</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="M45" t="n">
-        <v>35.78111320680476</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="N45" t="n">
-        <v>35.78111320680476</v>
+        <v>35.78111320680448</v>
       </c>
       <c r="O45" t="n">
-        <v>35.78111320680476</v>
+        <v>35.78111320680448</v>
       </c>
       <c r="P45" t="n">
-        <v>35.78111320680476</v>
+        <v>35.78111320680448</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.78111320680476</v>
+        <v>35.78111320680448</v>
       </c>
       <c r="R45" t="n">
-        <v>35.78111320680476</v>
+        <v>35.78111320680448</v>
       </c>
       <c r="S45" t="n">
-        <v>35.78111320680476</v>
+        <v>35.78111320680448</v>
       </c>
       <c r="T45" t="n">
-        <v>35.78111320680476</v>
+        <v>35.78111320680448</v>
       </c>
       <c r="U45" t="n">
-        <v>35.78111320680476</v>
+        <v>35.78111320680448</v>
       </c>
       <c r="V45" t="n">
-        <v>35.78111320680476</v>
+        <v>35.78111320680448</v>
       </c>
       <c r="W45" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="X45" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="Y45" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="C46" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="D46" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="E46" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="F46" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="G46" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="H46" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="I46" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="J46" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="K46" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="L46" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="M46" t="n">
-        <v>120.623260165939</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="N46" t="n">
-        <v>120.623260165939</v>
+        <v>103.2845960674336</v>
       </c>
       <c r="O46" t="n">
-        <v>120.623260165939</v>
+        <v>103.2845960674336</v>
       </c>
       <c r="P46" t="n">
-        <v>120.623260165939</v>
+        <v>103.2845960674336</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.623260165939</v>
+        <v>103.2845960674336</v>
       </c>
       <c r="R46" t="n">
-        <v>120.623260165939</v>
+        <v>103.2845960674336</v>
       </c>
       <c r="S46" t="n">
-        <v>120.623260165939</v>
+        <v>103.2845960674336</v>
       </c>
       <c r="T46" t="n">
-        <v>120.623260165939</v>
+        <v>120.6232601659382</v>
       </c>
       <c r="U46" t="n">
-        <v>78.53404842146753</v>
+        <v>78.53404842146699</v>
       </c>
       <c r="V46" t="n">
-        <v>70.96092651556376</v>
+        <v>70.96092651556347</v>
       </c>
       <c r="W46" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="X46" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.65512277858623</v>
+        <v>28.65512277858621</v>
       </c>
     </row>
   </sheetData>
@@ -8693,22 +8693,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>189.0574756876699</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>153.1524308331737</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>92.2741338194696</v>
+        <v>16.37158307775708</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8848,13 +8848,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>106.3821278759461</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -8863,10 +8863,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>114.5411443216187</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,16 +8924,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>144.7715381416158</v>
+        <v>132.8033743644737</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>168.3207433304991</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>155.2999281386853</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8945,10 +8945,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>170.3681878261981</v>
+        <v>176.152156149761</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>19.20501064539548</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>85.85068679974623</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>364.6675835325312</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>362.5200862270197</v>
       </c>
       <c r="O26" t="n">
-        <v>367.4551137939856</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>150.1736578959785</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>105.2328625520064</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9963,19 +9963,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>71.8671794601849</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>90.30752936669646</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.7916225242058</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10036,16 +10036,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>106.3821278759461</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>98.34817151022013</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>111.3587261364776</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10118,22 +10118,22 @@
         <v>168.3207433304991</v>
       </c>
       <c r="M29" t="n">
-        <v>398.7976771909204</v>
+        <v>364.6675835325313</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>367.4551137939856</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,10 +10185,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>79.87382245979609</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>71.8671794601849</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>90.30752936669647</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10270,7 +10270,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7396511863337</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -10285,7 +10285,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>114.5411443216187</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10349,25 +10349,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>71.63752437612928</v>
+        <v>110.8089641451641</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>377.6883987243451</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>364.6675835325312</v>
       </c>
       <c r="N32" t="n">
-        <v>362.5200862270197</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>36.88642300111258</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>176.1047514274486</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10434,10 +10434,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>84.19302733439824</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>71.8671794601849</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10510,22 +10510,22 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>106.3821278759461</v>
       </c>
       <c r="M34" t="n">
-        <v>108.8738430064009</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O34" t="n">
-        <v>111.3587261364776</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>281.8695254258434</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>268.8487102340296</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>11.1945413266493</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>271.6362404954838</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>128.3859756723358</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10747,19 +10747,19 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>106.3821278759461</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>108.8738430064009</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>42.73001960716294</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>114.5411443216187</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10823,28 +10823,28 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>279.2727610885431</v>
       </c>
       <c r="L38" t="n">
-        <v>173.5751096565128</v>
+        <v>43.20475917967775</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>266.7012129285182</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>167.2628633924936</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>283.3222661743756</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,7 +10905,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>88.90283864918122</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>98.34817151022013</v>
       </c>
       <c r="O40" t="n">
         <v>111.3587261364776</v>
@@ -11060,22 +11060,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>279.2727610885435</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>281.8695254258433</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>148.6162908328906</v>
       </c>
       <c r="O41" t="n">
-        <v>35.36435930189417</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>150.3837142567266</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11233,7 +11233,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>114.5411443216187</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11297,28 +11297,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>41.77941382628059</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>281.8695254258437</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>268.8487102340295</v>
       </c>
       <c r="N44" t="n">
-        <v>266.7012129285183</v>
+        <v>182.0048854287522</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>283.3222661743756</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,7 +11379,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11458,10 +11458,10 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>106.3821278759461</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -23258,10 +23258,10 @@
         <v>96.21084332688957</v>
       </c>
       <c r="C11" t="n">
-        <v>78.74989343441655</v>
+        <v>151.1534549415208</v>
       </c>
       <c r="D11" t="n">
-        <v>83.89605183183801</v>
+        <v>68.16004328409196</v>
       </c>
       <c r="E11" t="n">
         <v>167.810933242775</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>7.105504016099173</v>
       </c>
       <c r="U11" t="n">
-        <v>37.19202471399027</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>113.6328216406482</v>
+        <v>87.05178937918113</v>
       </c>
       <c r="W11" t="n">
         <v>62.71797038082201</v>
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>168.6144048339938</v>
+        <v>168.6144048339939</v>
       </c>
       <c r="C14" t="n">
-        <v>78.74989343441655</v>
+        <v>131.6779266961531</v>
       </c>
       <c r="D14" t="n">
-        <v>140.5636047911962</v>
+        <v>140.5636047911963</v>
       </c>
       <c r="E14" t="n">
-        <v>167.810933242775</v>
+        <v>167.8109332427751</v>
       </c>
       <c r="F14" t="n">
-        <v>192.7566089122247</v>
+        <v>192.7566089122248</v>
       </c>
       <c r="G14" t="n">
-        <v>200.7559086311548</v>
+        <v>200.7559086311549</v>
       </c>
       <c r="H14" t="n">
-        <v>57.20527943274112</v>
+        <v>48.57477490109434</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.105504016099173</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>37.19202471399027</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>41.2292601335439</v>
+        <v>41.22926013354399</v>
       </c>
       <c r="W14" t="n">
-        <v>62.71797038082201</v>
+        <v>135.1215318879264</v>
       </c>
       <c r="X14" t="n">
-        <v>155.6116638489823</v>
+        <v>155.6116638489824</v>
       </c>
       <c r="Y14" t="n">
-        <v>172.1185018265668</v>
+        <v>99.71494031946267</v>
       </c>
     </row>
     <row r="15">
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-7.426332407791422e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.125499693443999e-12</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>744668.3816250658</v>
+        <v>744668.3816250659</v>
       </c>
     </row>
     <row r="6">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>928300.589454954</v>
+        <v>928300.5894549538</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>886947.2199134091</v>
+        <v>886947.2199134087</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>886947.2199134091</v>
+        <v>886947.219913409</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>886947.2199134091</v>
+        <v>886947.2199134089</v>
       </c>
     </row>
   </sheetData>
@@ -26317,40 +26317,40 @@
         <v>593975.3455698527</v>
       </c>
       <c r="D2" t="n">
-        <v>593975.3455698526</v>
+        <v>593975.3455698525</v>
       </c>
       <c r="E2" t="n">
-        <v>509704.1579279696</v>
+        <v>509704.1579279695</v>
       </c>
       <c r="F2" t="n">
         <v>509704.1579279698</v>
       </c>
       <c r="G2" t="n">
+        <v>595255.2831516053</v>
+      </c>
+      <c r="H2" t="n">
+        <v>595255.2831516053</v>
+      </c>
+      <c r="I2" t="n">
+        <v>595255.2831516053</v>
+      </c>
+      <c r="J2" t="n">
+        <v>595255.2831516057</v>
+      </c>
+      <c r="K2" t="n">
         <v>595255.2831516054</v>
       </c>
-      <c r="H2" t="n">
-        <v>595255.2831516052</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>595255.2831516053</v>
+      </c>
+      <c r="M2" t="n">
+        <v>595255.2831516056</v>
+      </c>
+      <c r="N2" t="n">
         <v>595255.2831516054</v>
       </c>
-      <c r="J2" t="n">
-        <v>595255.2831516055</v>
-      </c>
-      <c r="K2" t="n">
-        <v>595255.2831516053</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>595255.2831516056</v>
-      </c>
-      <c r="M2" t="n">
-        <v>595255.2831516055</v>
-      </c>
-      <c r="N2" t="n">
-        <v>595255.2831516057</v>
-      </c>
-      <c r="O2" t="n">
-        <v>595255.2831516055</v>
       </c>
       <c r="P2" t="n">
         <v>595255.2831516054</v>
@@ -26378,10 +26378,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>106979.8107928507</v>
+        <v>106979.8107928508</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>106979.8107928507</v>
+        <v>106979.8107928508</v>
       </c>
       <c r="M3" t="n">
-        <v>18732.24943311805</v>
+        <v>18732.24943311793</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>70000.14188361788</v>
+        <v>70000.14188361802</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26439,7 +26439,7 @@
         <v>431842.1671902813</v>
       </c>
       <c r="J4" t="n">
-        <v>440899.9009590467</v>
+        <v>440899.9009590468</v>
       </c>
       <c r="K4" t="n">
         <v>440899.9009590467</v>
@@ -26454,10 +26454,10 @@
         <v>436970.659685421</v>
       </c>
       <c r="O4" t="n">
+        <v>436970.6596854209</v>
+      </c>
+      <c r="P4" t="n">
         <v>436970.659685421</v>
-      </c>
-      <c r="P4" t="n">
-        <v>436970.6596854209</v>
       </c>
     </row>
     <row r="5">
@@ -26485,10 +26485,10 @@
         <v>35962.69087988507</v>
       </c>
       <c r="H5" t="n">
-        <v>35962.69087988508</v>
+        <v>35962.69087988507</v>
       </c>
       <c r="I5" t="n">
-        <v>35962.69087988508</v>
+        <v>35962.69087988507</v>
       </c>
       <c r="J5" t="n">
         <v>47095.82966680983</v>
@@ -26503,7 +26503,7 @@
         <v>44662.19497416889</v>
       </c>
       <c r="N5" t="n">
-        <v>44662.1949741689</v>
+        <v>44662.19497416889</v>
       </c>
       <c r="O5" t="n">
         <v>44662.19497416889</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>92731.78563812151</v>
+        <v>92727.3720602534</v>
       </c>
       <c r="C6" t="n">
-        <v>92731.78563812151</v>
+        <v>92727.3720602534</v>
       </c>
       <c r="D6" t="n">
-        <v>92731.78563812139</v>
+        <v>92727.37206025317</v>
       </c>
       <c r="E6" t="n">
-        <v>-160027.3008133324</v>
+        <v>-160322.304693414</v>
       </c>
       <c r="F6" t="n">
-        <v>118299.1638535469</v>
+        <v>118004.1599734655</v>
       </c>
       <c r="G6" t="n">
-        <v>20470.61428858832</v>
+        <v>20470.61428858815</v>
       </c>
       <c r="H6" t="n">
-        <v>127450.4250814388</v>
+        <v>127450.4250814389</v>
       </c>
       <c r="I6" t="n">
-        <v>127450.425081439</v>
+        <v>127450.4250814389</v>
       </c>
       <c r="J6" t="n">
-        <v>-56458.60116137419</v>
+        <v>-56458.60116137408</v>
       </c>
       <c r="K6" t="n">
-        <v>107259.5525257487</v>
+        <v>107259.552525749</v>
       </c>
       <c r="L6" t="n">
-        <v>279.7417328983938</v>
+        <v>279.7417328979209</v>
       </c>
       <c r="M6" t="n">
-        <v>94890.17905889767</v>
+        <v>94890.17905889791</v>
       </c>
       <c r="N6" t="n">
-        <v>113622.4284920158</v>
+        <v>113622.4284920154</v>
       </c>
       <c r="O6" t="n">
-        <v>43622.2866083978</v>
+        <v>43622.28660839786</v>
       </c>
       <c r="P6" t="n">
-        <v>113622.4284920156</v>
+        <v>113622.4284920155</v>
       </c>
     </row>
   </sheetData>
@@ -26701,10 +26701,10 @@
         <v>347.8442003205501</v>
       </c>
       <c r="H2" t="n">
-        <v>347.8442003205502</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="I2" t="n">
-        <v>347.8442003205502</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="J2" t="n">
         <v>221.2249408455859</v>
@@ -26713,19 +26713,19 @@
         <v>221.2249408455859</v>
       </c>
       <c r="L2" t="n">
-        <v>221.2249408455859</v>
+        <v>221.224940845586</v>
       </c>
       <c r="M2" t="n">
         <v>244.6402526369834</v>
       </c>
       <c r="N2" t="n">
+        <v>244.6402526369835</v>
+      </c>
+      <c r="O2" t="n">
         <v>244.6402526369834</v>
       </c>
-      <c r="O2" t="n">
-        <v>244.6402526369833</v>
-      </c>
       <c r="P2" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369835</v>
       </c>
     </row>
     <row r="3">
@@ -26808,7 +26808,7 @@
         <v>72.40356150710426</v>
       </c>
       <c r="I4" t="n">
-        <v>72.40356150710426</v>
+        <v>72.40356150710431</v>
       </c>
       <c r="J4" t="n">
         <v>430.5925962394319</v>
@@ -26823,13 +26823,13 @@
         <v>358.1890347323277</v>
       </c>
       <c r="N4" t="n">
-        <v>358.1890347323279</v>
+        <v>358.1890347323277</v>
       </c>
       <c r="O4" t="n">
-        <v>358.1890347323279</v>
+        <v>358.1890347323277</v>
       </c>
       <c r="P4" t="n">
-        <v>358.1890347323279</v>
+        <v>358.1890347323277</v>
       </c>
     </row>
   </sheetData>
@@ -26923,28 +26923,28 @@
         <v>133.7247634910634</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>87.50017735452249</v>
+        <v>87.50017735452258</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>133.7247634910633</v>
+        <v>133.7247634910635</v>
       </c>
       <c r="M2" t="n">
-        <v>23.41531179139756</v>
+        <v>23.41531179139741</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>87.50017735452235</v>
+        <v>87.50017735452252</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>358.1890347323277</v>
+        <v>358.1890347323276</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>133.7247634910634</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>87.50017735452249</v>
+        <v>87.50017735452258</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28111,34 +28111,34 @@
         <v>214.1194368294867</v>
       </c>
       <c r="J11" t="n">
-        <v>214.1194368294867</v>
+        <v>144.7715381416158</v>
       </c>
       <c r="K11" t="n">
         <v>214.1194368294867</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>199.8236593414682</v>
+      </c>
+      <c r="N11" t="n">
+        <v>153.1524308331737</v>
+      </c>
+      <c r="O11" t="n">
         <v>214.1194368294867</v>
-      </c>
-      <c r="M11" t="n">
-        <v>161.1743511642898</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>65.81332458066994</v>
       </c>
       <c r="P11" t="n">
         <v>214.1194368294867</v>
       </c>
       <c r="Q11" t="n">
-        <v>214.1194368294867</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>123.0219517980703</v>
       </c>
       <c r="S11" t="n">
-        <v>214.1194368294867</v>
+        <v>199.280873144474</v>
       </c>
       <c r="T11" t="n">
         <v>214.1194368294867</v>
@@ -28190,16 +28190,16 @@
         <v>91.64914299614301</v>
       </c>
       <c r="J12" t="n">
-        <v>105.2328625520064</v>
+        <v>174.6784267811068</v>
       </c>
       <c r="K12" t="n">
         <v>100.9154559462058</v>
       </c>
       <c r="L12" t="n">
-        <v>88.90283864918122</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M12" t="n">
-        <v>84.19302733439824</v>
+        <v>84.19302733439825</v>
       </c>
       <c r="N12" t="n">
         <v>71.8671794601849</v>
@@ -28208,10 +28208,10 @@
         <v>88.18866638734514</v>
       </c>
       <c r="P12" t="n">
-        <v>90.30752936669646</v>
+        <v>90.30752936669647</v>
       </c>
       <c r="Q12" t="n">
-        <v>180.2371867533062</v>
+        <v>110.7916225242058</v>
       </c>
       <c r="R12" t="n">
         <v>131.4816003936965</v>
@@ -28254,7 +28254,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>214.1194368294867</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -28269,28 +28269,28 @@
         <v>149.6851312728186</v>
       </c>
       <c r="J13" t="n">
-        <v>126.3727326007367</v>
+        <v>185.8448482425773</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>106.7396511863337</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>111.8318579712823</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N13" t="n">
-        <v>98.34817151022013</v>
+        <v>170.7517330173244</v>
       </c>
       <c r="O13" t="n">
         <v>183.7622876435818</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>114.5411443216187</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.10866344484918</v>
+        <v>135.4516218226007</v>
       </c>
       <c r="R13" t="n">
         <v>168.6732614754589</v>
@@ -28348,16 +28348,16 @@
         <v>214.1194368294867</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.96816377714215</v>
       </c>
       <c r="K14" t="n">
+        <v>165.7239789931989</v>
+      </c>
+      <c r="L14" t="n">
         <v>214.1194368294867</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
       <c r="M14" t="n">
-        <v>214.1194368294867</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>214.1194368294867</v>
@@ -28366,16 +28366,16 @@
         <v>214.1194368294867</v>
       </c>
       <c r="P14" t="n">
-        <v>186.7467381317927</v>
+        <v>214.1194368294867</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.783968323562947</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>214.1194368294867</v>
       </c>
       <c r="S14" t="n">
-        <v>199.280873144474</v>
+        <v>214.1194368294867</v>
       </c>
       <c r="T14" t="n">
         <v>214.1194368294867</v>
@@ -28433,19 +28433,19 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L15" t="n">
-        <v>88.90283864918122</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M15" t="n">
-        <v>84.19302733439824</v>
+        <v>84.19302733439825</v>
       </c>
       <c r="N15" t="n">
         <v>71.8671794601849</v>
       </c>
       <c r="O15" t="n">
-        <v>157.6342306164455</v>
+        <v>157.6342306164458</v>
       </c>
       <c r="P15" t="n">
-        <v>90.30752936669646</v>
+        <v>90.30752936669647</v>
       </c>
       <c r="Q15" t="n">
         <v>110.7916225242058</v>
@@ -28488,7 +28488,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>214.1194368294867</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -28506,13 +28506,13 @@
         <v>214.1194368294867</v>
       </c>
       <c r="J16" t="n">
-        <v>133.7598704770753</v>
+        <v>113.4412867354731</v>
       </c>
       <c r="K16" t="n">
-        <v>106.7396511863337</v>
+        <v>179.143212693438</v>
       </c>
       <c r="L16" t="n">
-        <v>106.3821278759461</v>
+        <v>146.7585000747957</v>
       </c>
       <c r="M16" t="n">
         <v>108.8738430064009</v>
@@ -28527,10 +28527,10 @@
         <v>114.5411443216187</v>
       </c>
       <c r="Q16" t="n">
-        <v>207.8551833297049</v>
+        <v>135.4516218226007</v>
       </c>
       <c r="R16" t="n">
-        <v>168.6732614754589</v>
+        <v>214.1194368294867</v>
       </c>
       <c r="S16" t="n">
         <v>214.1194368294867</v>
@@ -28579,34 +28579,34 @@
         <v>347.8442003205501</v>
       </c>
       <c r="H17" t="n">
-        <v>335.0977732376853</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="I17" t="n">
         <v>193.998857389544</v>
       </c>
       <c r="J17" t="n">
-        <v>214.2497032241906</v>
+        <v>144.7715381416158</v>
       </c>
       <c r="K17" t="n">
         <v>165.7239789931989</v>
       </c>
       <c r="L17" t="n">
-        <v>168.3207433304991</v>
+        <v>240.7243048376034</v>
       </c>
       <c r="M17" t="n">
-        <v>155.2999281386852</v>
+        <v>227.7034896457895</v>
       </c>
       <c r="N17" t="n">
         <v>153.1524308331737</v>
       </c>
       <c r="O17" t="n">
-        <v>230.4910199072438</v>
+        <v>158.0874584001396</v>
       </c>
       <c r="P17" t="n">
         <v>242.1770455861357</v>
       </c>
       <c r="Q17" t="n">
-        <v>248.5557176568653</v>
+        <v>212.7919522990558</v>
       </c>
       <c r="R17" t="n">
         <v>188.7383716710528</v>
@@ -28621,7 +28621,7 @@
         <v>251.311461543477</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="W17" t="n">
         <v>347.8442003205501</v>
@@ -28670,10 +28670,10 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L18" t="n">
-        <v>88.90283864918122</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M18" t="n">
-        <v>84.19302733439824</v>
+        <v>84.19302733439825</v>
       </c>
       <c r="N18" t="n">
         <v>71.8671794601849</v>
@@ -28682,7 +28682,7 @@
         <v>88.18866638734514</v>
       </c>
       <c r="P18" t="n">
-        <v>90.30752936669646</v>
+        <v>90.30752936669647</v>
       </c>
       <c r="Q18" t="n">
         <v>110.7916225242058</v>
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>347.8442003205502</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="C20" t="n">
-        <v>347.8442003205502</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="D20" t="n">
-        <v>347.8442003205502</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="E20" t="n">
-        <v>347.8442003205502</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="F20" t="n">
-        <v>347.8442003205502</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="G20" t="n">
-        <v>347.8442003205502</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="H20" t="n">
         <v>335.0977732376853</v>
       </c>
       <c r="I20" t="n">
-        <v>193.998857389544</v>
+        <v>266.4024188966483</v>
       </c>
       <c r="J20" t="n">
         <v>144.7715381416158</v>
@@ -28828,10 +28828,10 @@
         <v>165.7239789931989</v>
       </c>
       <c r="L20" t="n">
-        <v>237.7989084130739</v>
+        <v>168.3207433304991</v>
       </c>
       <c r="M20" t="n">
-        <v>155.2999281386852</v>
+        <v>155.2999281386853</v>
       </c>
       <c r="N20" t="n">
         <v>153.1524308331737</v>
@@ -28840,19 +28840,19 @@
         <v>158.0874584001396</v>
       </c>
       <c r="P20" t="n">
-        <v>169.7734840790314</v>
+        <v>242.1770455861357</v>
       </c>
       <c r="Q20" t="n">
-        <v>248.5557176568653</v>
+        <v>245.6303212323358</v>
       </c>
       <c r="R20" t="n">
-        <v>188.7383716710528</v>
+        <v>261.141933178157</v>
       </c>
       <c r="S20" t="n">
-        <v>271.6844346515783</v>
+        <v>199.280873144474</v>
       </c>
       <c r="T20" t="n">
-        <v>293.6285023526902</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="U20" t="n">
         <v>251.311461543477</v>
@@ -28861,13 +28861,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>347.8442003205502</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="X20" t="n">
-        <v>347.8442003205502</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="Y20" t="n">
-        <v>347.8442003205502</v>
+        <v>347.8442003205501</v>
       </c>
     </row>
     <row r="21">
@@ -28907,10 +28907,10 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L21" t="n">
-        <v>88.90283864918122</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M21" t="n">
-        <v>84.19302733439824</v>
+        <v>84.19302733439825</v>
       </c>
       <c r="N21" t="n">
         <v>71.8671794601849</v>
@@ -28919,7 +28919,7 @@
         <v>88.18866638734514</v>
       </c>
       <c r="P21" t="n">
-        <v>90.30752936669646</v>
+        <v>90.30752936669647</v>
       </c>
       <c r="Q21" t="n">
         <v>110.7916225242058</v>
@@ -29035,22 +29035,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>347.8442003205502</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="C23" t="n">
-        <v>347.8442003205502</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="D23" t="n">
-        <v>347.8442003205502</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="E23" t="n">
-        <v>347.8442003205502</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="F23" t="n">
-        <v>347.8442003205502</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="G23" t="n">
-        <v>347.8442003205502</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="H23" t="n">
         <v>335.0977732376853</v>
@@ -29059,7 +29059,7 @@
         <v>193.998857389544</v>
       </c>
       <c r="J23" t="n">
-        <v>217.1750996487201</v>
+        <v>144.7715381416158</v>
       </c>
       <c r="K23" t="n">
         <v>165.7239789931989</v>
@@ -29068,22 +29068,22 @@
         <v>168.3207433304991</v>
       </c>
       <c r="M23" t="n">
-        <v>155.2999281386852</v>
+        <v>227.7034896457896</v>
       </c>
       <c r="N23" t="n">
         <v>153.1524308331737</v>
       </c>
       <c r="O23" t="n">
-        <v>230.4910199072438</v>
+        <v>158.0874584001396</v>
       </c>
       <c r="P23" t="n">
         <v>169.7734840790314</v>
       </c>
       <c r="Q23" t="n">
-        <v>248.5557176568653</v>
+        <v>176.152156149761</v>
       </c>
       <c r="R23" t="n">
-        <v>188.7383716710528</v>
+        <v>261.141933178157</v>
       </c>
       <c r="S23" t="n">
         <v>268.7590382270488</v>
@@ -29092,19 +29092,19 @@
         <v>221.2249408455859</v>
       </c>
       <c r="U23" t="n">
-        <v>251.311461543477</v>
+        <v>323.7150230505814</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>347.8442003205502</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="X23" t="n">
-        <v>347.8442003205502</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="Y23" t="n">
-        <v>347.8442003205502</v>
+        <v>347.8442003205501</v>
       </c>
     </row>
     <row r="24">
@@ -29144,10 +29144,10 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L24" t="n">
-        <v>88.90283864918122</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M24" t="n">
-        <v>84.19302733439824</v>
+        <v>84.19302733439825</v>
       </c>
       <c r="N24" t="n">
         <v>71.8671794601849</v>
@@ -29156,7 +29156,7 @@
         <v>88.18866638734514</v>
       </c>
       <c r="P24" t="n">
-        <v>90.30752936669646</v>
+        <v>90.30752936669647</v>
       </c>
       <c r="Q24" t="n">
         <v>110.7916225242058</v>
@@ -29293,7 +29293,7 @@
         <v>221.2249408455859</v>
       </c>
       <c r="I26" t="n">
-        <v>221.2249408455859</v>
+        <v>193.998857389544</v>
       </c>
       <c r="J26" t="n">
         <v>221.2249408455859</v>
@@ -29311,16 +29311,16 @@
         <v>221.2249408455859</v>
       </c>
       <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>75.03609429014246</v>
+      </c>
+      <c r="Q26" t="n">
         <v>221.2249408455859</v>
       </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>98.55092800730031</v>
-      </c>
       <c r="R26" t="n">
-        <v>123.0219517980703</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="S26" t="n">
         <v>221.2249408455859</v>
@@ -29360,7 +29360,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>205.3413210968087</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -29375,31 +29375,31 @@
         <v>91.64914299614301</v>
       </c>
       <c r="J27" t="n">
-        <v>105.2328625520064</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>100.9154559462058</v>
       </c>
       <c r="L27" t="n">
-        <v>88.90283864918122</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M27" t="n">
-        <v>84.19302733439824</v>
+        <v>84.19302733439825</v>
       </c>
       <c r="N27" t="n">
-        <v>71.8671794601849</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>88.18866638734514</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>138.0037700081042</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>110.7916225242058</v>
       </c>
       <c r="R27" t="n">
-        <v>131.4816003936965</v>
+        <v>85.95993058237569</v>
       </c>
       <c r="S27" t="n">
         <v>167.4356349622666</v>
@@ -29454,25 +29454,25 @@
         <v>149.6851312728186</v>
       </c>
       <c r="J28" t="n">
-        <v>173.57304073025</v>
+        <v>113.4412867354731</v>
       </c>
       <c r="K28" t="n">
         <v>221.2249408455859</v>
       </c>
       <c r="L28" t="n">
-        <v>106.3821278759461</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>108.8738430064009</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>98.34817151022013</v>
       </c>
       <c r="O28" t="n">
-        <v>111.3587261364776</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>114.5411443216187</v>
+        <v>175.2222821726394</v>
       </c>
       <c r="Q28" t="n">
         <v>70.10866344484918</v>
@@ -29481,7 +29481,7 @@
         <v>168.6732614754589</v>
       </c>
       <c r="S28" t="n">
-        <v>221.2249408455859</v>
+        <v>220.675556989342</v>
       </c>
       <c r="T28" t="n">
         <v>221.2249408455859</v>
@@ -29530,7 +29530,7 @@
         <v>221.2249408455859</v>
       </c>
       <c r="I29" t="n">
-        <v>221.2249408455859</v>
+        <v>193.998857389544</v>
       </c>
       <c r="J29" t="n">
         <v>221.2249408455859</v>
@@ -29542,25 +29542,25 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>187.0948471871968</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="N29" t="n">
-        <v>221.2249408455859</v>
+        <v>185.2494011251318</v>
       </c>
       <c r="O29" t="n">
         <v>221.2249408455859</v>
       </c>
       <c r="P29" t="n">
-        <v>59.39057269936794</v>
+        <v>169.7734840790314</v>
       </c>
       <c r="Q29" t="n">
         <v>221.2249408455859</v>
       </c>
       <c r="R29" t="n">
-        <v>188.7383716710528</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="S29" t="n">
-        <v>221.2249408455859</v>
+        <v>199.280873144474</v>
       </c>
       <c r="T29" t="n">
         <v>221.2249408455859</v>
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>214.2294242912751</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -29609,34 +29609,34 @@
         <v>110.026926034905</v>
       </c>
       <c r="I30" t="n">
-        <v>91.64914299614301</v>
+        <v>81.52339584755809</v>
       </c>
       <c r="J30" t="n">
-        <v>105.2328625520064</v>
+        <v>25.35904009221034</v>
       </c>
       <c r="K30" t="n">
         <v>100.9154559462058</v>
       </c>
       <c r="L30" t="n">
-        <v>88.90283864918122</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M30" t="n">
-        <v>84.19302733439824</v>
+        <v>131.8892679758061</v>
       </c>
       <c r="N30" t="n">
-        <v>71.8671794601849</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>88.18866638734514</v>
       </c>
       <c r="P30" t="n">
-        <v>90.30752936669646</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>110.7916225242058</v>
       </c>
       <c r="R30" t="n">
-        <v>131.4816003936965</v>
+        <v>85.95993058237569</v>
       </c>
       <c r="S30" t="n">
         <v>167.4356349622666</v>
@@ -29694,10 +29694,10 @@
         <v>113.4412867354731</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="L31" t="n">
-        <v>171.6823406771106</v>
+        <v>106.3821278759461</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -29706,10 +29706,10 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>221.2249408455859</v>
+        <v>172.0398639874984</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>114.5411443216187</v>
       </c>
       <c r="Q31" t="n">
         <v>70.10866344484918</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>221.2249408455859</v>
+        <v>221.224940845586</v>
       </c>
       <c r="C32" t="n">
-        <v>221.2249408455859</v>
+        <v>221.224940845586</v>
       </c>
       <c r="D32" t="n">
-        <v>221.2249408455859</v>
+        <v>221.224940845586</v>
       </c>
       <c r="E32" t="n">
-        <v>221.2249408455859</v>
+        <v>221.224940845586</v>
       </c>
       <c r="F32" t="n">
-        <v>221.2249408455859</v>
+        <v>221.224940845586</v>
       </c>
       <c r="G32" t="n">
-        <v>221.2249408455859</v>
+        <v>221.224940845586</v>
       </c>
       <c r="H32" t="n">
-        <v>221.2249408455859</v>
+        <v>221.224940845586</v>
       </c>
       <c r="I32" t="n">
-        <v>193.998857389544</v>
+        <v>221.224940845586</v>
       </c>
       <c r="J32" t="n">
-        <v>221.2249408455859</v>
+        <v>221.224940845586</v>
       </c>
       <c r="K32" t="n">
-        <v>94.08645461706959</v>
+        <v>54.91501484803474</v>
       </c>
       <c r="L32" t="n">
-        <v>221.2249408455859</v>
+        <v>221.224940845586</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>221.224940845586</v>
       </c>
       <c r="N32" t="n">
-        <v>221.2249408455859</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>221.2249408455859</v>
+        <v>221.224940845586</v>
       </c>
       <c r="P32" t="n">
-        <v>221.2249408455859</v>
+        <v>221.224940845586</v>
       </c>
       <c r="Q32" t="n">
-        <v>221.2249408455859</v>
+        <v>221.224940845586</v>
       </c>
       <c r="R32" t="n">
-        <v>221.2249408455859</v>
+        <v>221.224940845586</v>
       </c>
       <c r="S32" t="n">
-        <v>221.2249408455859</v>
+        <v>221.224940845586</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2249408455859</v>
+        <v>221.224940845586</v>
       </c>
       <c r="U32" t="n">
-        <v>221.2249408455859</v>
+        <v>221.224940845586</v>
       </c>
       <c r="V32" t="n">
-        <v>221.2249408455859</v>
+        <v>221.224940845586</v>
       </c>
       <c r="W32" t="n">
-        <v>221.2249408455859</v>
+        <v>221.224940845586</v>
       </c>
       <c r="X32" t="n">
-        <v>221.2249408455859</v>
+        <v>221.224940845586</v>
       </c>
       <c r="Y32" t="n">
-        <v>221.2249408455859</v>
+        <v>221.224940845586</v>
       </c>
     </row>
     <row r="33">
@@ -29855,25 +29855,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>88.90283864918122</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>84.19302733439825</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>71.8671794601849</v>
       </c>
       <c r="O33" t="n">
         <v>88.18866638734514</v>
       </c>
       <c r="P33" t="n">
-        <v>90.30752936669646</v>
+        <v>90.30752936669647</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.7916225242058</v>
+        <v>158.4878631656133</v>
       </c>
       <c r="R33" t="n">
-        <v>179.1778410351043</v>
+        <v>85.95993058237569</v>
       </c>
       <c r="S33" t="n">
         <v>167.4356349622666</v>
@@ -29882,13 +29882,13 @@
         <v>199.2430083373</v>
       </c>
       <c r="U33" t="n">
-        <v>221.2249408455859</v>
+        <v>221.224940845586</v>
       </c>
       <c r="V33" t="n">
-        <v>221.2249408455859</v>
+        <v>221.224940845586</v>
       </c>
       <c r="W33" t="n">
-        <v>221.2249408455859</v>
+        <v>221.224940845586</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -29919,7 +29919,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>221.2249408455859</v>
+        <v>167.7992659963099</v>
       </c>
       <c r="H34" t="n">
         <v>160.5226664330617</v>
@@ -29931,46 +29931,46 @@
         <v>113.4412867354731</v>
       </c>
       <c r="K34" t="n">
-        <v>121.7966073233636</v>
+        <v>106.7396511863337</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3821278759461</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N34" t="n">
-        <v>98.34817151022013</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>221.2249408455859</v>
+        <v>114.5411443216187</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.10866344484918</v>
+        <v>135.4516218226007</v>
       </c>
       <c r="R34" t="n">
-        <v>168.6732614754589</v>
+        <v>218.6872034220849</v>
       </c>
       <c r="S34" t="n">
         <v>220.675556989342</v>
       </c>
       <c r="T34" t="n">
-        <v>221.2249408455859</v>
+        <v>221.224940845586</v>
       </c>
       <c r="U34" t="n">
-        <v>221.2249408455859</v>
+        <v>221.224940845586</v>
       </c>
       <c r="V34" t="n">
-        <v>221.2249408455859</v>
+        <v>221.224940845586</v>
       </c>
       <c r="W34" t="n">
-        <v>221.2249408455859</v>
+        <v>221.224940845586</v>
       </c>
       <c r="X34" t="n">
-        <v>221.2249408455859</v>
+        <v>221.224940845586</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -30007,28 +30007,28 @@
         <v>244.6402526369834</v>
       </c>
       <c r="J35" t="n">
-        <v>244.6402526369834</v>
+        <v>144.7715381416158</v>
       </c>
       <c r="K35" t="n">
-        <v>244.6402526369834</v>
+        <v>165.7239789931989</v>
       </c>
       <c r="L35" t="n">
         <v>244.6402526369834</v>
       </c>
       <c r="M35" t="n">
-        <v>63.97542937818042</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="N35" t="n">
-        <v>189.718115856224</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="O35" t="n">
         <v>244.6402526369834</v>
       </c>
       <c r="P35" t="n">
-        <v>244.6402526369834</v>
+        <v>169.7734840790314</v>
       </c>
       <c r="Q35" t="n">
-        <v>244.6402526369834</v>
+        <v>176.152156149761</v>
       </c>
       <c r="R35" t="n">
         <v>244.6402526369834</v>
@@ -30074,7 +30074,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>152.2671825228974</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.114842254054</v>
@@ -30092,10 +30092,10 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L36" t="n">
-        <v>88.90283864918122</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M36" t="n">
-        <v>84.19302733439824</v>
+        <v>84.19302733439825</v>
       </c>
       <c r="N36" t="n">
         <v>71.8671794601849</v>
@@ -30104,7 +30104,7 @@
         <v>88.18866638734514</v>
       </c>
       <c r="P36" t="n">
-        <v>90.30752936669646</v>
+        <v>90.30752936669647</v>
       </c>
       <c r="Q36" t="n">
         <v>110.7916225242058</v>
@@ -30122,7 +30122,7 @@
         <v>225.9263376790566</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>239.9985572789388</v>
       </c>
       <c r="W36" t="n">
         <v>244.6402526369834</v>
@@ -30165,31 +30165,31 @@
         <v>149.6851312728186</v>
       </c>
       <c r="J37" t="n">
-        <v>130.3714040460216</v>
+        <v>113.4412867354731</v>
       </c>
       <c r="K37" t="n">
         <v>106.7396511863337</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>106.3821278759461</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N37" t="n">
-        <v>98.34817151022013</v>
+        <v>55.61815190305718</v>
       </c>
       <c r="O37" t="n">
         <v>111.3587261364776</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>114.5411443216187</v>
       </c>
       <c r="Q37" t="n">
-        <v>135.4516218226007</v>
+        <v>228.3487302946737</v>
       </c>
       <c r="R37" t="n">
-        <v>244.6402526369834</v>
+        <v>168.6732614754589</v>
       </c>
       <c r="S37" t="n">
         <v>220.675556989342</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="C38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="D38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="E38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="F38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="G38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="H38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="I38" t="n">
         <v>193.998857389544</v>
       </c>
       <c r="J38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="K38" t="n">
-        <v>228.9827654617932</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="L38" t="n">
-        <v>244.6402526369834</v>
+        <v>125.1159841508214</v>
       </c>
       <c r="M38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="N38" t="n">
-        <v>244.6402526369834</v>
+        <v>153.1524308331737</v>
       </c>
       <c r="O38" t="n">
-        <v>135.4763118697221</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="P38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="Q38" t="n">
-        <v>176.152156149761</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="R38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="S38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="T38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="U38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="V38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="W38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="X38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="Y38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
     </row>
     <row r="39">
@@ -30302,7 +30302,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>179.9064691178293</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -30329,10 +30329,10 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M39" t="n">
-        <v>84.19302733439824</v>
+        <v>84.19302733439825</v>
       </c>
       <c r="N39" t="n">
         <v>71.8671794601849</v>
@@ -30341,7 +30341,7 @@
         <v>88.18866638734514</v>
       </c>
       <c r="P39" t="n">
-        <v>90.30752936669646</v>
+        <v>90.30752936669647</v>
       </c>
       <c r="Q39" t="n">
         <v>110.7916225242058</v>
@@ -30359,10 +30359,10 @@
         <v>225.9263376790566</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>239.9985572789387</v>
       </c>
       <c r="W39" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -30408,13 +30408,13 @@
         <v>106.7396511863337</v>
       </c>
       <c r="L40" t="n">
-        <v>106.3821278759461</v>
+        <v>175.3145407003774</v>
       </c>
       <c r="M40" t="n">
         <v>108.8738430064009</v>
       </c>
       <c r="N40" t="n">
-        <v>148.3499870867056</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30429,22 +30429,22 @@
         <v>168.6732614754589</v>
       </c>
       <c r="S40" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="T40" t="n">
         <v>227.1264505172819</v>
       </c>
       <c r="U40" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="V40" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="W40" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="X40" t="n">
-        <v>244.6402526369834</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="C41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="D41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="E41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="F41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="G41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="H41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="I41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="J41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="K41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="L41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="M41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="N41" t="n">
-        <v>153.1524308331737</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="O41" t="n">
-        <v>122.7230990982454</v>
+        <v>188.7922474809336</v>
       </c>
       <c r="P41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="Q41" t="n">
-        <v>244.6402526369833</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>123.0219517980703</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="S41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="T41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="U41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="V41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="W41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="X41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="Y41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
     </row>
     <row r="42">
@@ -30539,7 +30539,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>179.9064691178294</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -30566,10 +30566,10 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L42" t="n">
-        <v>88.90283864918122</v>
+        <v>88.90283864918123</v>
       </c>
       <c r="M42" t="n">
-        <v>84.19302733439824</v>
+        <v>84.19302733439825</v>
       </c>
       <c r="N42" t="n">
         <v>71.8671794601849</v>
@@ -30578,7 +30578,7 @@
         <v>88.18866638734514</v>
       </c>
       <c r="P42" t="n">
-        <v>90.30752936669646</v>
+        <v>90.30752936669647</v>
       </c>
       <c r="Q42" t="n">
         <v>110.7916225242058</v>
@@ -30590,7 +30590,7 @@
         <v>167.4356349622666</v>
       </c>
       <c r="T42" t="n">
-        <v>199.2430083373</v>
+        <v>206.4409784668135</v>
       </c>
       <c r="U42" t="n">
         <v>225.9263376790566</v>
@@ -30599,7 +30599,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -30633,7 +30633,7 @@
         <v>167.7992659963099</v>
       </c>
       <c r="H43" t="n">
-        <v>160.5226664330617</v>
+        <v>229.4550792574933</v>
       </c>
       <c r="I43" t="n">
         <v>149.6851312728186</v>
@@ -30645,7 +30645,7 @@
         <v>106.7396511863337</v>
       </c>
       <c r="L43" t="n">
-        <v>199.2792363480197</v>
+        <v>106.3821278759461</v>
       </c>
       <c r="M43" t="n">
         <v>108.8738430064009</v>
@@ -30657,7 +30657,7 @@
         <v>111.3587261364776</v>
       </c>
       <c r="P43" t="n">
-        <v>114.5411443216187</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>135.4516218226007</v>
@@ -30666,19 +30666,19 @@
         <v>168.6732614754589</v>
       </c>
       <c r="S43" t="n">
-        <v>220.675556989342</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="T43" t="n">
         <v>227.1264505172819</v>
       </c>
       <c r="U43" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="V43" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="W43" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="C44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="D44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="E44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="F44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="G44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="H44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="I44" t="n">
-        <v>193.998857389544</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="J44" t="n">
-        <v>228.3139361313426</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="K44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="L44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="M44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="N44" t="n">
-        <v>244.6402526369833</v>
+        <v>143.4918559364179</v>
       </c>
       <c r="O44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="Q44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="R44" t="n">
-        <v>244.6402526369833</v>
+        <v>123.0219517980703</v>
       </c>
       <c r="S44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2249408455859</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="U44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="V44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="W44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="X44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="Y44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369835</v>
       </c>
     </row>
     <row r="45">
@@ -30794,7 +30794,7 @@
         <v>110.026926034905</v>
       </c>
       <c r="I45" t="n">
-        <v>98.84711312565668</v>
+        <v>91.64914299614301</v>
       </c>
       <c r="J45" t="n">
         <v>105.2328625520064</v>
@@ -30803,19 +30803,19 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L45" t="n">
-        <v>88.90283864918122</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>84.19302733439824</v>
+        <v>84.19302733439825</v>
       </c>
       <c r="N45" t="n">
-        <v>71.8671794601849</v>
+        <v>79.06514958969831</v>
       </c>
       <c r="O45" t="n">
         <v>88.18866638734514</v>
       </c>
       <c r="P45" t="n">
-        <v>90.30752936669646</v>
+        <v>90.30752936669647</v>
       </c>
       <c r="Q45" t="n">
         <v>110.7916225242058</v>
@@ -30836,7 +30836,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -30882,13 +30882,13 @@
         <v>106.7396511863337</v>
       </c>
       <c r="L46" t="n">
-        <v>106.3821278759461</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>201.7709514784744</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>98.34817151022013</v>
+        <v>173.7314778625912</v>
       </c>
       <c r="O46" t="n">
         <v>111.3587261364776</v>
@@ -30906,16 +30906,16 @@
         <v>220.675556989342</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1264505172819</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="U46" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="V46" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="W46" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4273920544935322</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H11" t="n">
         <v>4.377028878081887</v>
       </c>
       <c r="I11" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J11" t="n">
         <v>36.27436638507046</v>
       </c>
       <c r="K11" t="n">
-        <v>54.36587205178169</v>
+        <v>54.36587205178168</v>
       </c>
       <c r="L11" t="n">
-        <v>67.44567163948814</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M11" t="n">
-        <v>75.04630508858749</v>
+        <v>75.04630508858747</v>
       </c>
       <c r="N11" t="n">
         <v>76.26063276341723</v>
       </c>
       <c r="O11" t="n">
-        <v>72.01075302154717</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P11" t="n">
-        <v>61.45951167623809</v>
+        <v>61.45951167623808</v>
       </c>
       <c r="Q11" t="n">
-        <v>46.15353372468846</v>
+        <v>46.15353372468845</v>
       </c>
       <c r="R11" t="n">
         <v>26.84716614307936</v>
       </c>
       <c r="S11" t="n">
-        <v>9.739196441771375</v>
+        <v>9.739196441771373</v>
       </c>
       <c r="T11" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03419136435948257</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,16 +31832,16 @@
         <v>0.2286749091566103</v>
       </c>
       <c r="H12" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I12" t="n">
-        <v>7.87323700385698</v>
+        <v>7.873237003856979</v>
       </c>
       <c r="J12" t="n">
         <v>21.60476411466028</v>
       </c>
       <c r="K12" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815317</v>
       </c>
       <c r="L12" t="n">
         <v>49.65154113069296</v>
@@ -31850,16 +31850,16 @@
         <v>57.94100658762007</v>
       </c>
       <c r="N12" t="n">
-        <v>59.47453262314841</v>
+        <v>59.4745326231484</v>
       </c>
       <c r="O12" t="n">
-        <v>54.4075780570993</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P12" t="n">
-        <v>43.66687804763378</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q12" t="n">
-        <v>29.19015156181574</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R12" t="n">
         <v>14.19790357026744</v>
@@ -31868,7 +31868,7 @@
         <v>4.247536141571246</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9217203575216001</v>
+        <v>0.9217203575216</v>
       </c>
       <c r="U12" t="n">
         <v>0.01504440191819805</v>
@@ -31911,7 +31911,7 @@
         <v>0.1917133621488407</v>
       </c>
       <c r="H13" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I13" t="n">
         <v>5.765343654439683</v>
@@ -31920,19 +31920,19 @@
         <v>13.55413470392303</v>
       </c>
       <c r="K13" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L13" t="n">
         <v>28.50254840529219</v>
       </c>
       <c r="M13" t="n">
-        <v>30.05194094120418</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N13" t="n">
-        <v>29.33737295501307</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O13" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P13" t="n">
         <v>23.18685972752887</v>
@@ -31941,13 +31941,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R13" t="n">
-        <v>8.620129901710598</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S13" t="n">
-        <v>3.34104104763025</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8191389109995918</v>
+        <v>0.8191389109995917</v>
       </c>
       <c r="U13" t="n">
         <v>0.01045709248084587</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4273920544935322</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H14" t="n">
         <v>4.377028878081887</v>
       </c>
       <c r="I14" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J14" t="n">
         <v>36.27436638507046</v>
       </c>
       <c r="K14" t="n">
-        <v>54.36587205178169</v>
+        <v>54.36587205178168</v>
       </c>
       <c r="L14" t="n">
-        <v>67.44567163948814</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M14" t="n">
-        <v>75.04630508858749</v>
+        <v>75.04630508858747</v>
       </c>
       <c r="N14" t="n">
         <v>76.26063276341723</v>
       </c>
       <c r="O14" t="n">
-        <v>72.01075302154717</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P14" t="n">
-        <v>61.45951167623809</v>
+        <v>61.45951167623808</v>
       </c>
       <c r="Q14" t="n">
-        <v>46.15353372468846</v>
+        <v>46.15353372468845</v>
       </c>
       <c r="R14" t="n">
         <v>26.84716614307936</v>
       </c>
       <c r="S14" t="n">
-        <v>9.739196441771375</v>
+        <v>9.739196441771373</v>
       </c>
       <c r="T14" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03419136435948257</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,16 +32069,16 @@
         <v>0.2286749091566103</v>
       </c>
       <c r="H15" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I15" t="n">
-        <v>7.87323700385698</v>
+        <v>7.873237003856979</v>
       </c>
       <c r="J15" t="n">
         <v>21.60476411466028</v>
       </c>
       <c r="K15" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815317</v>
       </c>
       <c r="L15" t="n">
         <v>49.65154113069296</v>
@@ -32087,16 +32087,16 @@
         <v>57.94100658762007</v>
       </c>
       <c r="N15" t="n">
-        <v>59.47453262314841</v>
+        <v>59.4745326231484</v>
       </c>
       <c r="O15" t="n">
-        <v>54.4075780570993</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P15" t="n">
-        <v>43.66687804763378</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q15" t="n">
-        <v>29.19015156181574</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R15" t="n">
         <v>14.19790357026744</v>
@@ -32105,7 +32105,7 @@
         <v>4.247536141571246</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9217203575216001</v>
+        <v>0.9217203575216</v>
       </c>
       <c r="U15" t="n">
         <v>0.01504440191819805</v>
@@ -32148,7 +32148,7 @@
         <v>0.1917133621488407</v>
       </c>
       <c r="H16" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I16" t="n">
         <v>5.765343654439683</v>
@@ -32157,19 +32157,19 @@
         <v>13.55413470392303</v>
       </c>
       <c r="K16" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L16" t="n">
         <v>28.50254840529219</v>
       </c>
       <c r="M16" t="n">
-        <v>30.05194094120418</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N16" t="n">
-        <v>29.33737295501307</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O16" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P16" t="n">
         <v>23.18685972752887</v>
@@ -32178,13 +32178,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R16" t="n">
-        <v>8.620129901710598</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S16" t="n">
-        <v>3.34104104763025</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8191389109995918</v>
+        <v>0.8191389109995917</v>
       </c>
       <c r="U16" t="n">
         <v>0.01045709248084587</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4273920544935322</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H17" t="n">
         <v>4.377028878081887</v>
       </c>
       <c r="I17" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J17" t="n">
         <v>36.27436638507046</v>
       </c>
       <c r="K17" t="n">
-        <v>54.36587205178169</v>
+        <v>54.36587205178168</v>
       </c>
       <c r="L17" t="n">
-        <v>67.44567163948814</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M17" t="n">
-        <v>75.04630508858749</v>
+        <v>75.04630508858747</v>
       </c>
       <c r="N17" t="n">
         <v>76.26063276341723</v>
       </c>
       <c r="O17" t="n">
-        <v>72.01075302154717</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P17" t="n">
-        <v>61.45951167623809</v>
+        <v>61.45951167623808</v>
       </c>
       <c r="Q17" t="n">
-        <v>46.15353372468846</v>
+        <v>46.15353372468845</v>
       </c>
       <c r="R17" t="n">
         <v>26.84716614307936</v>
       </c>
       <c r="S17" t="n">
-        <v>9.739196441771375</v>
+        <v>9.739196441771373</v>
       </c>
       <c r="T17" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03419136435948257</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,16 +32306,16 @@
         <v>0.2286749091566103</v>
       </c>
       <c r="H18" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I18" t="n">
-        <v>7.87323700385698</v>
+        <v>7.873237003856979</v>
       </c>
       <c r="J18" t="n">
         <v>21.60476411466028</v>
       </c>
       <c r="K18" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815317</v>
       </c>
       <c r="L18" t="n">
         <v>49.65154113069296</v>
@@ -32324,16 +32324,16 @@
         <v>57.94100658762007</v>
       </c>
       <c r="N18" t="n">
-        <v>59.47453262314841</v>
+        <v>59.4745326231484</v>
       </c>
       <c r="O18" t="n">
-        <v>54.4075780570993</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P18" t="n">
-        <v>43.66687804763378</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q18" t="n">
-        <v>29.19015156181574</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R18" t="n">
         <v>14.19790357026744</v>
@@ -32342,7 +32342,7 @@
         <v>4.247536141571246</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9217203575216001</v>
+        <v>0.9217203575216</v>
       </c>
       <c r="U18" t="n">
         <v>0.01504440191819805</v>
@@ -32385,7 +32385,7 @@
         <v>0.1917133621488407</v>
       </c>
       <c r="H19" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I19" t="n">
         <v>5.765343654439683</v>
@@ -32394,19 +32394,19 @@
         <v>13.55413470392303</v>
       </c>
       <c r="K19" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L19" t="n">
         <v>28.50254840529219</v>
       </c>
       <c r="M19" t="n">
-        <v>30.05194094120418</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N19" t="n">
-        <v>29.33737295501307</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O19" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P19" t="n">
         <v>23.18685972752887</v>
@@ -32415,13 +32415,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R19" t="n">
-        <v>8.620129901710598</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S19" t="n">
-        <v>3.34104104763025</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8191389109995918</v>
+        <v>0.8191389109995917</v>
       </c>
       <c r="U19" t="n">
         <v>0.01045709248084587</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4273920544935322</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H20" t="n">
         <v>4.377028878081887</v>
       </c>
       <c r="I20" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J20" t="n">
         <v>36.27436638507046</v>
       </c>
       <c r="K20" t="n">
-        <v>54.36587205178169</v>
+        <v>54.36587205178168</v>
       </c>
       <c r="L20" t="n">
-        <v>67.44567163948814</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M20" t="n">
-        <v>75.04630508858749</v>
+        <v>75.04630508858747</v>
       </c>
       <c r="N20" t="n">
         <v>76.26063276341723</v>
       </c>
       <c r="O20" t="n">
-        <v>72.01075302154717</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P20" t="n">
-        <v>61.45951167623809</v>
+        <v>61.45951167623808</v>
       </c>
       <c r="Q20" t="n">
-        <v>46.15353372468846</v>
+        <v>46.15353372468845</v>
       </c>
       <c r="R20" t="n">
         <v>26.84716614307936</v>
       </c>
       <c r="S20" t="n">
-        <v>9.739196441771375</v>
+        <v>9.739196441771373</v>
       </c>
       <c r="T20" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03419136435948257</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,16 +32543,16 @@
         <v>0.2286749091566103</v>
       </c>
       <c r="H21" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I21" t="n">
-        <v>7.87323700385698</v>
+        <v>7.873237003856979</v>
       </c>
       <c r="J21" t="n">
         <v>21.60476411466028</v>
       </c>
       <c r="K21" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815317</v>
       </c>
       <c r="L21" t="n">
         <v>49.65154113069296</v>
@@ -32561,16 +32561,16 @@
         <v>57.94100658762007</v>
       </c>
       <c r="N21" t="n">
-        <v>59.47453262314841</v>
+        <v>59.4745326231484</v>
       </c>
       <c r="O21" t="n">
-        <v>54.4075780570993</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P21" t="n">
-        <v>43.66687804763378</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q21" t="n">
-        <v>29.19015156181574</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R21" t="n">
         <v>14.19790357026744</v>
@@ -32579,7 +32579,7 @@
         <v>4.247536141571246</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9217203575216001</v>
+        <v>0.9217203575216</v>
       </c>
       <c r="U21" t="n">
         <v>0.01504440191819805</v>
@@ -32622,7 +32622,7 @@
         <v>0.1917133621488407</v>
       </c>
       <c r="H22" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I22" t="n">
         <v>5.765343654439683</v>
@@ -32631,19 +32631,19 @@
         <v>13.55413470392303</v>
       </c>
       <c r="K22" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L22" t="n">
         <v>28.50254840529219</v>
       </c>
       <c r="M22" t="n">
-        <v>30.05194094120418</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N22" t="n">
-        <v>29.33737295501307</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O22" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P22" t="n">
         <v>23.18685972752887</v>
@@ -32652,13 +32652,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R22" t="n">
-        <v>8.620129901710598</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S22" t="n">
-        <v>3.34104104763025</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8191389109995918</v>
+        <v>0.8191389109995917</v>
       </c>
       <c r="U22" t="n">
         <v>0.01045709248084587</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4273920544935322</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H23" t="n">
         <v>4.377028878081887</v>
       </c>
       <c r="I23" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J23" t="n">
         <v>36.27436638507046</v>
       </c>
       <c r="K23" t="n">
-        <v>54.36587205178169</v>
+        <v>54.36587205178168</v>
       </c>
       <c r="L23" t="n">
-        <v>67.44567163948814</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M23" t="n">
-        <v>75.04630508858749</v>
+        <v>75.04630508858747</v>
       </c>
       <c r="N23" t="n">
         <v>76.26063276341723</v>
       </c>
       <c r="O23" t="n">
-        <v>72.01075302154717</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P23" t="n">
-        <v>61.45951167623809</v>
+        <v>61.45951167623808</v>
       </c>
       <c r="Q23" t="n">
-        <v>46.15353372468846</v>
+        <v>46.15353372468845</v>
       </c>
       <c r="R23" t="n">
         <v>26.84716614307936</v>
       </c>
       <c r="S23" t="n">
-        <v>9.739196441771375</v>
+        <v>9.739196441771373</v>
       </c>
       <c r="T23" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03419136435948257</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,16 +32780,16 @@
         <v>0.2286749091566103</v>
       </c>
       <c r="H24" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I24" t="n">
-        <v>7.87323700385698</v>
+        <v>7.873237003856979</v>
       </c>
       <c r="J24" t="n">
         <v>21.60476411466028</v>
       </c>
       <c r="K24" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815317</v>
       </c>
       <c r="L24" t="n">
         <v>49.65154113069296</v>
@@ -32798,16 +32798,16 @@
         <v>57.94100658762007</v>
       </c>
       <c r="N24" t="n">
-        <v>59.47453262314841</v>
+        <v>59.4745326231484</v>
       </c>
       <c r="O24" t="n">
-        <v>54.4075780570993</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P24" t="n">
-        <v>43.66687804763378</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q24" t="n">
-        <v>29.19015156181574</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R24" t="n">
         <v>14.19790357026744</v>
@@ -32816,7 +32816,7 @@
         <v>4.247536141571246</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9217203575216001</v>
+        <v>0.9217203575216</v>
       </c>
       <c r="U24" t="n">
         <v>0.01504440191819805</v>
@@ -32859,7 +32859,7 @@
         <v>0.1917133621488407</v>
       </c>
       <c r="H25" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I25" t="n">
         <v>5.765343654439683</v>
@@ -32868,19 +32868,19 @@
         <v>13.55413470392303</v>
       </c>
       <c r="K25" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L25" t="n">
         <v>28.50254840529219</v>
       </c>
       <c r="M25" t="n">
-        <v>30.05194094120418</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N25" t="n">
-        <v>29.33737295501307</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O25" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P25" t="n">
         <v>23.18685972752887</v>
@@ -32889,13 +32889,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R25" t="n">
-        <v>8.620129901710598</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S25" t="n">
-        <v>3.34104104763025</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8191389109995918</v>
+        <v>0.8191389109995917</v>
       </c>
       <c r="U25" t="n">
         <v>0.01045709248084587</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4273920544935322</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H26" t="n">
         <v>4.377028878081887</v>
       </c>
       <c r="I26" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J26" t="n">
         <v>36.27436638507046</v>
       </c>
       <c r="K26" t="n">
-        <v>54.36587205178169</v>
+        <v>54.36587205178168</v>
       </c>
       <c r="L26" t="n">
-        <v>67.44567163948814</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M26" t="n">
-        <v>75.04630508858749</v>
+        <v>75.04630508858747</v>
       </c>
       <c r="N26" t="n">
         <v>76.26063276341723</v>
       </c>
       <c r="O26" t="n">
-        <v>72.01075302154717</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P26" t="n">
-        <v>61.45951167623809</v>
+        <v>61.45951167623808</v>
       </c>
       <c r="Q26" t="n">
-        <v>46.15353372468846</v>
+        <v>46.15353372468845</v>
       </c>
       <c r="R26" t="n">
         <v>26.84716614307936</v>
       </c>
       <c r="S26" t="n">
-        <v>9.739196441771375</v>
+        <v>9.739196441771373</v>
       </c>
       <c r="T26" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03419136435948257</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,16 +33017,16 @@
         <v>0.2286749091566103</v>
       </c>
       <c r="H27" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I27" t="n">
-        <v>7.87323700385698</v>
+        <v>7.873237003856979</v>
       </c>
       <c r="J27" t="n">
         <v>21.60476411466028</v>
       </c>
       <c r="K27" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815317</v>
       </c>
       <c r="L27" t="n">
         <v>49.65154113069296</v>
@@ -33035,16 +33035,16 @@
         <v>57.94100658762007</v>
       </c>
       <c r="N27" t="n">
-        <v>59.47453262314841</v>
+        <v>59.4745326231484</v>
       </c>
       <c r="O27" t="n">
-        <v>54.4075780570993</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P27" t="n">
-        <v>43.66687804763378</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q27" t="n">
-        <v>29.19015156181574</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R27" t="n">
         <v>14.19790357026744</v>
@@ -33053,7 +33053,7 @@
         <v>4.247536141571246</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9217203575216001</v>
+        <v>0.9217203575216</v>
       </c>
       <c r="U27" t="n">
         <v>0.01504440191819805</v>
@@ -33096,7 +33096,7 @@
         <v>0.1917133621488407</v>
       </c>
       <c r="H28" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I28" t="n">
         <v>5.765343654439683</v>
@@ -33105,19 +33105,19 @@
         <v>13.55413470392303</v>
       </c>
       <c r="K28" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L28" t="n">
         <v>28.50254840529219</v>
       </c>
       <c r="M28" t="n">
-        <v>30.05194094120418</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N28" t="n">
-        <v>29.33737295501307</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O28" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P28" t="n">
         <v>23.18685972752887</v>
@@ -33126,13 +33126,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R28" t="n">
-        <v>8.620129901710598</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S28" t="n">
-        <v>3.34104104763025</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8191389109995918</v>
+        <v>0.8191389109995917</v>
       </c>
       <c r="U28" t="n">
         <v>0.01045709248084587</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4273920544935322</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H29" t="n">
         <v>4.377028878081887</v>
       </c>
       <c r="I29" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J29" t="n">
         <v>36.27436638507046</v>
       </c>
       <c r="K29" t="n">
-        <v>54.36587205178169</v>
+        <v>54.36587205178168</v>
       </c>
       <c r="L29" t="n">
-        <v>67.44567163948814</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M29" t="n">
-        <v>75.04630508858749</v>
+        <v>75.04630508858747</v>
       </c>
       <c r="N29" t="n">
         <v>76.26063276341723</v>
       </c>
       <c r="O29" t="n">
-        <v>72.01075302154717</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P29" t="n">
-        <v>61.45951167623809</v>
+        <v>61.45951167623808</v>
       </c>
       <c r="Q29" t="n">
-        <v>46.15353372468846</v>
+        <v>46.15353372468845</v>
       </c>
       <c r="R29" t="n">
         <v>26.84716614307936</v>
       </c>
       <c r="S29" t="n">
-        <v>9.739196441771375</v>
+        <v>9.739196441771373</v>
       </c>
       <c r="T29" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03419136435948257</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,16 +33254,16 @@
         <v>0.2286749091566103</v>
       </c>
       <c r="H30" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I30" t="n">
-        <v>7.87323700385698</v>
+        <v>7.873237003856979</v>
       </c>
       <c r="J30" t="n">
         <v>21.60476411466028</v>
       </c>
       <c r="K30" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815317</v>
       </c>
       <c r="L30" t="n">
         <v>49.65154113069296</v>
@@ -33272,16 +33272,16 @@
         <v>57.94100658762007</v>
       </c>
       <c r="N30" t="n">
-        <v>59.47453262314841</v>
+        <v>59.4745326231484</v>
       </c>
       <c r="O30" t="n">
-        <v>54.4075780570993</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P30" t="n">
-        <v>43.66687804763378</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q30" t="n">
-        <v>29.19015156181574</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R30" t="n">
         <v>14.19790357026744</v>
@@ -33290,7 +33290,7 @@
         <v>4.247536141571246</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9217203575216001</v>
+        <v>0.9217203575216</v>
       </c>
       <c r="U30" t="n">
         <v>0.01504440191819805</v>
@@ -33333,7 +33333,7 @@
         <v>0.1917133621488407</v>
       </c>
       <c r="H31" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I31" t="n">
         <v>5.765343654439683</v>
@@ -33342,19 +33342,19 @@
         <v>13.55413470392303</v>
       </c>
       <c r="K31" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L31" t="n">
         <v>28.50254840529219</v>
       </c>
       <c r="M31" t="n">
-        <v>30.05194094120418</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N31" t="n">
-        <v>29.33737295501307</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O31" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P31" t="n">
         <v>23.18685972752887</v>
@@ -33363,13 +33363,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R31" t="n">
-        <v>8.620129901710598</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S31" t="n">
-        <v>3.34104104763025</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8191389109995918</v>
+        <v>0.8191389109995917</v>
       </c>
       <c r="U31" t="n">
         <v>0.01045709248084587</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4273920544935322</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H32" t="n">
         <v>4.377028878081887</v>
       </c>
       <c r="I32" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J32" t="n">
         <v>36.27436638507046</v>
       </c>
       <c r="K32" t="n">
-        <v>54.36587205178169</v>
+        <v>54.36587205178168</v>
       </c>
       <c r="L32" t="n">
-        <v>67.44567163948814</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M32" t="n">
-        <v>75.04630508858749</v>
+        <v>75.04630508858747</v>
       </c>
       <c r="N32" t="n">
         <v>76.26063276341723</v>
       </c>
       <c r="O32" t="n">
-        <v>72.01075302154717</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P32" t="n">
-        <v>61.45951167623809</v>
+        <v>61.45951167623808</v>
       </c>
       <c r="Q32" t="n">
-        <v>46.15353372468846</v>
+        <v>46.15353372468845</v>
       </c>
       <c r="R32" t="n">
         <v>26.84716614307936</v>
       </c>
       <c r="S32" t="n">
-        <v>9.739196441771375</v>
+        <v>9.739196441771373</v>
       </c>
       <c r="T32" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03419136435948257</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,16 +33491,16 @@
         <v>0.2286749091566103</v>
       </c>
       <c r="H33" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I33" t="n">
-        <v>7.87323700385698</v>
+        <v>7.873237003856979</v>
       </c>
       <c r="J33" t="n">
         <v>21.60476411466028</v>
       </c>
       <c r="K33" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815317</v>
       </c>
       <c r="L33" t="n">
         <v>49.65154113069296</v>
@@ -33509,16 +33509,16 @@
         <v>57.94100658762007</v>
       </c>
       <c r="N33" t="n">
-        <v>59.47453262314841</v>
+        <v>59.4745326231484</v>
       </c>
       <c r="O33" t="n">
-        <v>54.4075780570993</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P33" t="n">
-        <v>43.66687804763378</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q33" t="n">
-        <v>29.19015156181574</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R33" t="n">
         <v>14.19790357026744</v>
@@ -33527,7 +33527,7 @@
         <v>4.247536141571246</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9217203575216001</v>
+        <v>0.9217203575216</v>
       </c>
       <c r="U33" t="n">
         <v>0.01504440191819805</v>
@@ -33570,7 +33570,7 @@
         <v>0.1917133621488407</v>
       </c>
       <c r="H34" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I34" t="n">
         <v>5.765343654439683</v>
@@ -33579,19 +33579,19 @@
         <v>13.55413470392303</v>
       </c>
       <c r="K34" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L34" t="n">
         <v>28.50254840529219</v>
       </c>
       <c r="M34" t="n">
-        <v>30.05194094120418</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N34" t="n">
-        <v>29.33737295501307</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O34" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P34" t="n">
         <v>23.18685972752887</v>
@@ -33600,13 +33600,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R34" t="n">
-        <v>8.620129901710598</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S34" t="n">
-        <v>3.34104104763025</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8191389109995918</v>
+        <v>0.8191389109995917</v>
       </c>
       <c r="U34" t="n">
         <v>0.01045709248084587</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4273920544935322</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H35" t="n">
         <v>4.377028878081887</v>
       </c>
       <c r="I35" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J35" t="n">
         <v>36.27436638507046</v>
       </c>
       <c r="K35" t="n">
-        <v>54.36587205178169</v>
+        <v>54.36587205178168</v>
       </c>
       <c r="L35" t="n">
-        <v>67.44567163948814</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M35" t="n">
-        <v>75.04630508858749</v>
+        <v>75.04630508858747</v>
       </c>
       <c r="N35" t="n">
         <v>76.26063276341723</v>
       </c>
       <c r="O35" t="n">
-        <v>72.01075302154717</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P35" t="n">
-        <v>61.45951167623809</v>
+        <v>61.45951167623808</v>
       </c>
       <c r="Q35" t="n">
-        <v>46.15353372468846</v>
+        <v>46.15353372468845</v>
       </c>
       <c r="R35" t="n">
         <v>26.84716614307936</v>
       </c>
       <c r="S35" t="n">
-        <v>9.739196441771375</v>
+        <v>9.739196441771373</v>
       </c>
       <c r="T35" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03419136435948257</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,16 +33728,16 @@
         <v>0.2286749091566103</v>
       </c>
       <c r="H36" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I36" t="n">
-        <v>7.87323700385698</v>
+        <v>7.873237003856979</v>
       </c>
       <c r="J36" t="n">
         <v>21.60476411466028</v>
       </c>
       <c r="K36" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815317</v>
       </c>
       <c r="L36" t="n">
         <v>49.65154113069296</v>
@@ -33746,16 +33746,16 @@
         <v>57.94100658762007</v>
       </c>
       <c r="N36" t="n">
-        <v>59.47453262314841</v>
+        <v>59.4745326231484</v>
       </c>
       <c r="O36" t="n">
-        <v>54.4075780570993</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P36" t="n">
-        <v>43.66687804763378</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q36" t="n">
-        <v>29.19015156181574</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R36" t="n">
         <v>14.19790357026744</v>
@@ -33764,7 +33764,7 @@
         <v>4.247536141571246</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9217203575216001</v>
+        <v>0.9217203575216</v>
       </c>
       <c r="U36" t="n">
         <v>0.01504440191819805</v>
@@ -33807,7 +33807,7 @@
         <v>0.1917133621488407</v>
       </c>
       <c r="H37" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I37" t="n">
         <v>5.765343654439683</v>
@@ -33816,19 +33816,19 @@
         <v>13.55413470392303</v>
       </c>
       <c r="K37" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L37" t="n">
         <v>28.50254840529219</v>
       </c>
       <c r="M37" t="n">
-        <v>30.05194094120418</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N37" t="n">
-        <v>29.33737295501307</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O37" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P37" t="n">
         <v>23.18685972752887</v>
@@ -33837,13 +33837,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R37" t="n">
-        <v>8.620129901710598</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S37" t="n">
-        <v>3.34104104763025</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8191389109995918</v>
+        <v>0.8191389109995917</v>
       </c>
       <c r="U37" t="n">
         <v>0.01045709248084587</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4273920544935322</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H38" t="n">
         <v>4.377028878081887</v>
       </c>
       <c r="I38" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J38" t="n">
         <v>36.27436638507046</v>
       </c>
       <c r="K38" t="n">
-        <v>54.36587205178169</v>
+        <v>54.36587205178168</v>
       </c>
       <c r="L38" t="n">
-        <v>67.44567163948814</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M38" t="n">
-        <v>75.04630508858749</v>
+        <v>75.04630508858747</v>
       </c>
       <c r="N38" t="n">
         <v>76.26063276341723</v>
       </c>
       <c r="O38" t="n">
-        <v>72.01075302154717</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P38" t="n">
-        <v>61.45951167623809</v>
+        <v>61.45951167623808</v>
       </c>
       <c r="Q38" t="n">
-        <v>46.15353372468846</v>
+        <v>46.15353372468845</v>
       </c>
       <c r="R38" t="n">
         <v>26.84716614307936</v>
       </c>
       <c r="S38" t="n">
-        <v>9.739196441771375</v>
+        <v>9.739196441771373</v>
       </c>
       <c r="T38" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03419136435948257</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,16 +33965,16 @@
         <v>0.2286749091566103</v>
       </c>
       <c r="H39" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I39" t="n">
-        <v>7.87323700385698</v>
+        <v>7.873237003856979</v>
       </c>
       <c r="J39" t="n">
         <v>21.60476411466028</v>
       </c>
       <c r="K39" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815317</v>
       </c>
       <c r="L39" t="n">
         <v>49.65154113069296</v>
@@ -33983,16 +33983,16 @@
         <v>57.94100658762007</v>
       </c>
       <c r="N39" t="n">
-        <v>59.47453262314841</v>
+        <v>59.4745326231484</v>
       </c>
       <c r="O39" t="n">
-        <v>54.4075780570993</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P39" t="n">
-        <v>43.66687804763378</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q39" t="n">
-        <v>29.19015156181574</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R39" t="n">
         <v>14.19790357026744</v>
@@ -34001,7 +34001,7 @@
         <v>4.247536141571246</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9217203575216001</v>
+        <v>0.9217203575216</v>
       </c>
       <c r="U39" t="n">
         <v>0.01504440191819805</v>
@@ -34044,7 +34044,7 @@
         <v>0.1917133621488407</v>
       </c>
       <c r="H40" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I40" t="n">
         <v>5.765343654439683</v>
@@ -34053,19 +34053,19 @@
         <v>13.55413470392303</v>
       </c>
       <c r="K40" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L40" t="n">
         <v>28.50254840529219</v>
       </c>
       <c r="M40" t="n">
-        <v>30.05194094120418</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N40" t="n">
-        <v>29.33737295501307</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O40" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P40" t="n">
         <v>23.18685972752887</v>
@@ -34074,13 +34074,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R40" t="n">
-        <v>8.620129901710598</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S40" t="n">
-        <v>3.34104104763025</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8191389109995918</v>
+        <v>0.8191389109995917</v>
       </c>
       <c r="U40" t="n">
         <v>0.01045709248084587</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4273920544935322</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H41" t="n">
         <v>4.377028878081887</v>
       </c>
       <c r="I41" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J41" t="n">
         <v>36.27436638507046</v>
       </c>
       <c r="K41" t="n">
-        <v>54.36587205178169</v>
+        <v>54.36587205178168</v>
       </c>
       <c r="L41" t="n">
-        <v>67.44567163948814</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M41" t="n">
-        <v>75.04630508858749</v>
+        <v>75.04630508858747</v>
       </c>
       <c r="N41" t="n">
         <v>76.26063276341723</v>
       </c>
       <c r="O41" t="n">
-        <v>72.01075302154717</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P41" t="n">
-        <v>61.45951167623809</v>
+        <v>61.45951167623808</v>
       </c>
       <c r="Q41" t="n">
-        <v>46.15353372468846</v>
+        <v>46.15353372468845</v>
       </c>
       <c r="R41" t="n">
         <v>26.84716614307936</v>
       </c>
       <c r="S41" t="n">
-        <v>9.739196441771375</v>
+        <v>9.739196441771373</v>
       </c>
       <c r="T41" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03419136435948257</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,16 +34202,16 @@
         <v>0.2286749091566103</v>
       </c>
       <c r="H42" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I42" t="n">
-        <v>7.87323700385698</v>
+        <v>7.873237003856979</v>
       </c>
       <c r="J42" t="n">
         <v>21.60476411466028</v>
       </c>
       <c r="K42" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815317</v>
       </c>
       <c r="L42" t="n">
         <v>49.65154113069296</v>
@@ -34220,16 +34220,16 @@
         <v>57.94100658762007</v>
       </c>
       <c r="N42" t="n">
-        <v>59.47453262314841</v>
+        <v>59.4745326231484</v>
       </c>
       <c r="O42" t="n">
-        <v>54.4075780570993</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P42" t="n">
-        <v>43.66687804763378</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q42" t="n">
-        <v>29.19015156181574</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R42" t="n">
         <v>14.19790357026744</v>
@@ -34238,7 +34238,7 @@
         <v>4.247536141571246</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9217203575216001</v>
+        <v>0.9217203575216</v>
       </c>
       <c r="U42" t="n">
         <v>0.01504440191819805</v>
@@ -34281,7 +34281,7 @@
         <v>0.1917133621488407</v>
       </c>
       <c r="H43" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I43" t="n">
         <v>5.765343654439683</v>
@@ -34290,19 +34290,19 @@
         <v>13.55413470392303</v>
       </c>
       <c r="K43" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L43" t="n">
         <v>28.50254840529219</v>
       </c>
       <c r="M43" t="n">
-        <v>30.05194094120418</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N43" t="n">
-        <v>29.33737295501307</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O43" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P43" t="n">
         <v>23.18685972752887</v>
@@ -34311,13 +34311,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R43" t="n">
-        <v>8.620129901710598</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S43" t="n">
-        <v>3.34104104763025</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8191389109995918</v>
+        <v>0.8191389109995917</v>
       </c>
       <c r="U43" t="n">
         <v>0.01045709248084587</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4273920544935322</v>
+        <v>0.4273920544935321</v>
       </c>
       <c r="H44" t="n">
         <v>4.377028878081887</v>
       </c>
       <c r="I44" t="n">
-        <v>16.47703218086192</v>
+        <v>16.47703218086191</v>
       </c>
       <c r="J44" t="n">
         <v>36.27436638507046</v>
       </c>
       <c r="K44" t="n">
-        <v>54.36587205178169</v>
+        <v>54.36587205178168</v>
       </c>
       <c r="L44" t="n">
-        <v>67.44567163948814</v>
+        <v>67.44567163948813</v>
       </c>
       <c r="M44" t="n">
-        <v>75.04630508858749</v>
+        <v>75.04630508858747</v>
       </c>
       <c r="N44" t="n">
         <v>76.26063276341723</v>
       </c>
       <c r="O44" t="n">
-        <v>72.01075302154717</v>
+        <v>72.01075302154716</v>
       </c>
       <c r="P44" t="n">
-        <v>61.45951167623809</v>
+        <v>61.45951167623808</v>
       </c>
       <c r="Q44" t="n">
-        <v>46.15353372468846</v>
+        <v>46.15353372468845</v>
       </c>
       <c r="R44" t="n">
         <v>26.84716614307936</v>
       </c>
       <c r="S44" t="n">
-        <v>9.739196441771375</v>
+        <v>9.739196441771373</v>
       </c>
       <c r="T44" t="n">
         <v>1.870908718545438</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03419136435948257</v>
+        <v>0.03419136435948256</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,16 +34439,16 @@
         <v>0.2286749091566103</v>
       </c>
       <c r="H45" t="n">
-        <v>2.208518201591474</v>
+        <v>2.208518201591473</v>
       </c>
       <c r="I45" t="n">
-        <v>7.87323700385698</v>
+        <v>7.873237003856979</v>
       </c>
       <c r="J45" t="n">
         <v>21.60476411466028</v>
       </c>
       <c r="K45" t="n">
-        <v>36.92598302815318</v>
+        <v>36.92598302815317</v>
       </c>
       <c r="L45" t="n">
         <v>49.65154113069296</v>
@@ -34457,16 +34457,16 @@
         <v>57.94100658762007</v>
       </c>
       <c r="N45" t="n">
-        <v>59.47453262314841</v>
+        <v>59.4745326231484</v>
       </c>
       <c r="O45" t="n">
-        <v>54.4075780570993</v>
+        <v>54.40757805709929</v>
       </c>
       <c r="P45" t="n">
-        <v>43.66687804763378</v>
+        <v>43.66687804763377</v>
       </c>
       <c r="Q45" t="n">
-        <v>29.19015156181574</v>
+        <v>29.19015156181573</v>
       </c>
       <c r="R45" t="n">
         <v>14.19790357026744</v>
@@ -34475,7 +34475,7 @@
         <v>4.247536141571246</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9217203575216001</v>
+        <v>0.9217203575216</v>
       </c>
       <c r="U45" t="n">
         <v>0.01504440191819805</v>
@@ -34518,7 +34518,7 @@
         <v>0.1917133621488407</v>
       </c>
       <c r="H46" t="n">
-        <v>1.704506074377876</v>
+        <v>1.704506074377875</v>
       </c>
       <c r="I46" t="n">
         <v>5.765343654439683</v>
@@ -34527,19 +34527,19 @@
         <v>13.55413470392303</v>
       </c>
       <c r="K46" t="n">
-        <v>22.27360698420167</v>
+        <v>22.27360698420166</v>
       </c>
       <c r="L46" t="n">
         <v>28.50254840529219</v>
       </c>
       <c r="M46" t="n">
-        <v>30.05194094120418</v>
+        <v>30.05194094120417</v>
       </c>
       <c r="N46" t="n">
-        <v>29.33737295501307</v>
+        <v>29.33737295501306</v>
       </c>
       <c r="O46" t="n">
-        <v>27.09781231536524</v>
+        <v>27.09781231536523</v>
       </c>
       <c r="P46" t="n">
         <v>23.18685972752887</v>
@@ -34548,13 +34548,13 @@
         <v>16.0533798068452</v>
       </c>
       <c r="R46" t="n">
-        <v>8.620129901710598</v>
+        <v>8.620129901710596</v>
       </c>
       <c r="S46" t="n">
-        <v>3.34104104763025</v>
+        <v>3.341041047630249</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8191389109995918</v>
+        <v>0.8191389109995917</v>
       </c>
       <c r="U46" t="n">
         <v>0.01045709248084587</v>
@@ -35404,37 +35404,37 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>20.12057943994275</v>
+        <v>20.12057943994274</v>
       </c>
       <c r="J11" t="n">
-        <v>69.34789868787092</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>48.39545783628788</v>
+        <v>48.39545783628787</v>
       </c>
       <c r="L11" t="n">
-        <v>45.79869349898765</v>
+        <v>20.73673235717083</v>
       </c>
       <c r="M11" t="n">
-        <v>5.874423025604578</v>
+        <v>44.52373120278293</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="P11" t="n">
-        <v>44.3459527504553</v>
+        <v>44.34595275045528</v>
       </c>
       <c r="Q11" t="n">
-        <v>37.96728067972572</v>
+        <v>36.16283451014365</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>14.83856368501278</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>69.44556422910037</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>69.44556422910037</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35550,7 +35550,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>67.68547418291757</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.9314458652636</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="K13" t="n">
-        <v>0.004115158318814593</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>5.44973009533624</v>
       </c>
       <c r="M13" t="n">
-        <v>69.63581790304477</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="O13" t="n">
         <v>72.40356150710426</v>
@@ -35641,37 +35641,37 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>20.12057943994275</v>
+        <v>20.12057943994266</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>48.39545783628788</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>45.79869349898755</v>
       </c>
       <c r="M14" t="n">
-        <v>58.8195086908015</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>60.96700599631306</v>
+        <v>60.96700599631298</v>
       </c>
       <c r="O14" t="n">
-        <v>56.03197842934719</v>
+        <v>56.03197842934709</v>
       </c>
       <c r="P14" t="n">
-        <v>16.97325405276121</v>
+        <v>44.3459527504552</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>25.38106515843398</v>
+        <v>44.58607580382937</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>14.83856368501269</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35738,7 +35738,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>69.44556422910037</v>
+        <v>69.44556422910063</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35784,7 +35784,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.50396381127439</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -35799,16 +35799,16 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>64.43430555666815</v>
+        <v>64.43430555666805</v>
       </c>
       <c r="J16" t="n">
-        <v>20.3185837416022</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>40.37637219884957</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -35823,10 +35823,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>72.40356150710426</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>45.44617535402777</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35875,34 +35875,34 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>12.74642708286484</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>69.4781650825748</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>72.40356150710426</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>72.40356150710426</v>
       </c>
       <c r="Q17" t="n">
-        <v>72.40356150710426</v>
+        <v>36.63979614929478</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35917,7 +35917,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>20.0919418504152</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>72.40356150710426</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36124,31 +36124,31 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>72.40356150710426</v>
+      </c>
+      <c r="Q20" t="n">
         <v>69.4781650825748</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
+      <c r="R20" t="n">
         <v>72.40356150710426</v>
       </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
       <c r="S20" t="n">
-        <v>72.40356150710426</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>72.40356150710426</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>72.40356150710426</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -36364,31 +36364,31 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>72.40356150710431</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>72.40356150710426</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>72.40356150710426</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>72.40356150710431</v>
       </c>
       <c r="S23" t="n">
-        <v>69.4781650825748</v>
+        <v>69.47816508257483</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>72.40356150710431</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36589,37 +36589,37 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>27.22608345604191</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>245.5500178760439</v>
+        <v>76.45340270397011</v>
       </c>
       <c r="K26" t="n">
-        <v>141.3516486521333</v>
+        <v>379.6463744235518</v>
       </c>
       <c r="L26" t="n">
-        <v>52.90419751508681</v>
+        <v>52.90419751508682</v>
       </c>
       <c r="M26" t="n">
+        <v>65.92501270690067</v>
+      </c>
+      <c r="N26" t="n">
         <v>430.5925962394319</v>
       </c>
-      <c r="N26" t="n">
-        <v>68.07251001241222</v>
-      </c>
       <c r="O26" t="n">
-        <v>430.5925962394319</v>
+        <v>222.7127228626058</v>
       </c>
       <c r="P26" t="n">
-        <v>152.0252240924512</v>
+        <v>227.0613183825936</v>
       </c>
       <c r="Q26" t="n">
-        <v>134.713762517444</v>
+        <v>195.2464425918034</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>32.48656917453317</v>
       </c>
       <c r="S26" t="n">
-        <v>21.94406770111194</v>
+        <v>21.94406770111197</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -36656,7 +36656,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>47.6962406414078</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>47.69624064140771</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.13175399477693</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>114.4852896592522</v>
@@ -36768,7 +36768,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>60.68113785102066</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36777,7 +36777,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0.5493838562439004</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -36826,10 +36826,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>27.22608345604194</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>245.5500178760439</v>
+        <v>76.45340270397008</v>
       </c>
       <c r="K29" t="n">
         <v>379.6463744235518</v>
@@ -36841,22 +36841,22 @@
         <v>430.5925962394319</v>
       </c>
       <c r="N29" t="n">
-        <v>68.07251001241225</v>
+        <v>32.0969702919581</v>
       </c>
       <c r="O29" t="n">
-        <v>63.13748244544638</v>
+        <v>430.5925962394319</v>
       </c>
       <c r="P29" t="n">
-        <v>211.4157967918191</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>257.3877753557296</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>98.20298904751559</v>
       </c>
       <c r="S29" t="n">
-        <v>21.94406770111197</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -36884,7 +36884,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>47.69624064140771</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -36917,7 +36917,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>47.6962406414078</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36990,10 +36990,10 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>114.4852896592522</v>
       </c>
       <c r="L31" t="n">
-        <v>65.30021280116451</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>109.8662147091084</v>
+        <v>60.68113785102083</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37063,37 +37063,37 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>27.22608345604199</v>
       </c>
       <c r="J32" t="n">
-        <v>76.45340270397008</v>
+        <v>76.45340270397017</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>52.90419751508681</v>
+        <v>430.5925962394319</v>
       </c>
       <c r="M32" t="n">
-        <v>294.2136053541473</v>
+        <v>430.5925962394319</v>
       </c>
       <c r="N32" t="n">
-        <v>430.5925962394319</v>
+        <v>284.1944935788105</v>
       </c>
       <c r="O32" t="n">
-        <v>100.0239054465589</v>
+        <v>63.13748244544642</v>
       </c>
       <c r="P32" t="n">
-        <v>373.2501649380371</v>
+        <v>51.45145676655453</v>
       </c>
       <c r="Q32" t="n">
-        <v>257.3877753557296</v>
+        <v>221.1775361232736</v>
       </c>
       <c r="R32" t="n">
-        <v>98.20298904751559</v>
+        <v>98.20298904751567</v>
       </c>
       <c r="S32" t="n">
-        <v>21.94406770111194</v>
+        <v>21.94406770111202</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37166,10 +37166,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>47.69624064140754</v>
       </c>
       <c r="R33" t="n">
-        <v>47.6962406414078</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37215,7 +37215,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>53.42567484927599</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>15.05695613702987</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -37236,19 +37236,19 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>73.46954533424166</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>51.68294022940491</v>
       </c>
       <c r="P34" t="n">
-        <v>106.6837965239672</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>50.01394194662601</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37303,34 +37303,34 @@
         <v>50.64139524743941</v>
       </c>
       <c r="J35" t="n">
-        <v>268.9653296674413</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>78.91627364378454</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>76.31950930648431</v>
+        <v>358.1890347323277</v>
       </c>
       <c r="M35" t="n">
         <v>358.1890347323277</v>
       </c>
       <c r="N35" t="n">
-        <v>36.56568502305036</v>
+        <v>102.682363130459</v>
       </c>
       <c r="O35" t="n">
-        <v>86.55279423684385</v>
+        <v>358.1890347323277</v>
       </c>
       <c r="P35" t="n">
-        <v>74.86676855795196</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>196.8740721595582</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>121.6183008389131</v>
       </c>
       <c r="S35" t="n">
-        <v>45.35937949250944</v>
+        <v>45.35937949250943</v>
       </c>
       <c r="T35" t="n">
         <v>23.41531179139749</v>
@@ -37370,55 +37370,55 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
         <v>7.197970129513519</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>16.93011731054857</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -37482,10 +37482,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>92.89710847207309</v>
       </c>
       <c r="R37" t="n">
-        <v>75.96699116152452</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37540,37 +37540,37 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>99.86871449536758</v>
+        <v>99.86871449536767</v>
       </c>
       <c r="K38" t="n">
-        <v>63.25878646859429</v>
+        <v>358.1890347323277</v>
       </c>
       <c r="L38" t="n">
-        <v>249.894618962997</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>89.34032449829816</v>
+        <v>89.34032449829823</v>
       </c>
       <c r="N38" t="n">
-        <v>358.1890347323279</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>358.1890347323279</v>
+        <v>253.8156576293375</v>
       </c>
       <c r="P38" t="n">
-        <v>74.86676855795196</v>
+        <v>358.1890347323277</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>68.48809648722246</v>
       </c>
       <c r="R38" t="n">
-        <v>55.90188096593064</v>
+        <v>121.6183008389132</v>
       </c>
       <c r="S38" t="n">
-        <v>45.35937949250944</v>
+        <v>45.35937949250952</v>
       </c>
       <c r="T38" t="n">
-        <v>23.41531179139749</v>
+        <v>23.41531179139757</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37598,7 +37598,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>7.197970129513522</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -37655,7 +37655,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>7.197970129513433</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -37704,13 +37704,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>68.93241282443134</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>50.00181557648545</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -37725,7 +37725,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>23.9646956476414</v>
+        <v>23.96469564764148</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37740,7 +37740,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>18.93059724794625</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -37774,40 +37774,40 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>50.64139524743926</v>
+        <v>50.64139524743943</v>
       </c>
       <c r="J41" t="n">
-        <v>268.9653296674412</v>
+        <v>268.9653296674414</v>
       </c>
       <c r="K41" t="n">
-        <v>358.1890347323279</v>
+        <v>78.91627364378456</v>
       </c>
       <c r="L41" t="n">
-        <v>76.31950930648416</v>
+        <v>358.1890347323277</v>
       </c>
       <c r="M41" t="n">
-        <v>89.34032449829802</v>
+        <v>89.34032449829817</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>240.1041126367003</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>30.70478908079407</v>
       </c>
       <c r="P41" t="n">
-        <v>225.2504828146784</v>
+        <v>74.86676855795197</v>
       </c>
       <c r="Q41" t="n">
-        <v>280.8030871471269</v>
+        <v>36.16283451014365</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>121.6183008389131</v>
       </c>
       <c r="S41" t="n">
-        <v>45.3593794925093</v>
+        <v>45.35937949250946</v>
       </c>
       <c r="T41" t="n">
-        <v>23.41531179139734</v>
+        <v>23.41531179139751</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37835,7 +37835,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>7.197970129513665</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -37886,7 +37886,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>7.197970129513489</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -37929,7 +37929,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>68.93241282443158</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>92.89710847207354</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -37962,7 +37962,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>23.96469564764143</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -38011,40 +38011,40 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>50.64139524743952</v>
       </c>
       <c r="J44" t="n">
-        <v>83.54239798972674</v>
+        <v>99.8687144953677</v>
       </c>
       <c r="K44" t="n">
-        <v>120.695687470065</v>
+        <v>78.91627364378465</v>
       </c>
       <c r="L44" t="n">
-        <v>358.1890347323279</v>
+        <v>76.31950930648441</v>
       </c>
       <c r="M44" t="n">
-        <v>89.34032449829802</v>
+        <v>358.1890347323277</v>
       </c>
       <c r="N44" t="n">
-        <v>358.1890347323279</v>
+        <v>172.3443105319964</v>
       </c>
       <c r="O44" t="n">
-        <v>86.55279423684371</v>
+        <v>86.55279423684395</v>
       </c>
       <c r="P44" t="n">
-        <v>152.0252240924512</v>
+        <v>358.1890347323277</v>
       </c>
       <c r="Q44" t="n">
-        <v>68.48809648722224</v>
+        <v>68.48809648722249</v>
       </c>
       <c r="R44" t="n">
-        <v>55.9018809659305</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>45.3593794925093</v>
+        <v>45.35937949250955</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>23.4153117913976</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.197970129513665</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38105,7 +38105,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>7.197970129513403</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38181,10 +38181,10 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>92.89710847207354</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>75.38330635237114</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -38202,7 +38202,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>17.51380211970162</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
